--- a/Backup/Final Marks - Backup.xlsx
+++ b/Backup/Final Marks - Backup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Chitnis\Videos\Results Genetaor\Batch 2018-20\Sem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Results Genetaor\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A53413-C6F4-4F01-B380-ECB75C391FF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1F419-242F-41C0-AFB5-8521BBEE9590}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1974,7 +1974,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="C3">
-            <v>40</v>
+            <v>10</v>
           </cell>
           <cell r="D3">
             <v>60</v>
@@ -2001,7 +2001,7 @@
             <v>31</v>
           </cell>
           <cell r="D6">
-            <v>45</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="7">
@@ -2142,10 +2142,10 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -2310,10 +2310,10 @@
         </row>
         <row r="45">
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="46">
@@ -2921,15 +2921,119 @@
             <v>27</v>
           </cell>
           <cell r="D121">
-            <v>40</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="122">
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="C123">
+            <v>0</v>
+          </cell>
+          <cell r="D123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="C124">
+            <v>0</v>
+          </cell>
+          <cell r="D124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="C125">
+            <v>0</v>
+          </cell>
+          <cell r="D125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="C126">
+            <v>0</v>
+          </cell>
+          <cell r="D126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127">
+            <v>0</v>
+          </cell>
+          <cell r="D127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="C128">
+            <v>0</v>
+          </cell>
+          <cell r="D128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="C129">
+            <v>0</v>
+          </cell>
+          <cell r="D129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="C130">
+            <v>0</v>
+          </cell>
+          <cell r="D130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="C131">
+            <v>0</v>
+          </cell>
+          <cell r="D131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="C132">
+            <v>0</v>
+          </cell>
+          <cell r="D132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="C133">
+            <v>0</v>
+          </cell>
+          <cell r="D133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134">
+            <v>0</v>
+          </cell>
+          <cell r="D134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2948,10 +3052,10 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="C3">
-            <v>40</v>
+            <v>38</v>
           </cell>
           <cell r="D3">
-            <v>60</v>
+            <v>56</v>
           </cell>
         </row>
         <row r="4">
@@ -3116,10 +3220,10 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -3284,10 +3388,10 @@
         </row>
         <row r="45">
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="46">
@@ -3900,10 +4004,114 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="C123">
+            <v>0</v>
+          </cell>
+          <cell r="D123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="C124">
+            <v>0</v>
+          </cell>
+          <cell r="D124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="C125">
+            <v>0</v>
+          </cell>
+          <cell r="D125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="C126">
+            <v>0</v>
+          </cell>
+          <cell r="D126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127">
+            <v>0</v>
+          </cell>
+          <cell r="D127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="C128">
+            <v>0</v>
+          </cell>
+          <cell r="D128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="C129">
+            <v>0</v>
+          </cell>
+          <cell r="D129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="C130">
+            <v>0</v>
+          </cell>
+          <cell r="D130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="C131">
+            <v>0</v>
+          </cell>
+          <cell r="D131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="C132">
+            <v>0</v>
+          </cell>
+          <cell r="D132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="C133">
+            <v>0</v>
+          </cell>
+          <cell r="D133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134">
+            <v>0</v>
+          </cell>
+          <cell r="D134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -4090,10 +4298,10 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -4258,10 +4466,10 @@
         </row>
         <row r="45">
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="46">
@@ -4874,10 +5082,114 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="C123">
+            <v>0</v>
+          </cell>
+          <cell r="D123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="C124">
+            <v>0</v>
+          </cell>
+          <cell r="D124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="C125">
+            <v>0</v>
+          </cell>
+          <cell r="D125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="C126">
+            <v>0</v>
+          </cell>
+          <cell r="D126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127">
+            <v>0</v>
+          </cell>
+          <cell r="D127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="C128">
+            <v>0</v>
+          </cell>
+          <cell r="D128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="C129">
+            <v>0</v>
+          </cell>
+          <cell r="D129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="C130">
+            <v>0</v>
+          </cell>
+          <cell r="D130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="C131">
+            <v>0</v>
+          </cell>
+          <cell r="D131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="C132">
+            <v>0</v>
+          </cell>
+          <cell r="D132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="C133">
+            <v>0</v>
+          </cell>
+          <cell r="D133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134">
+            <v>0</v>
+          </cell>
+          <cell r="D134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -5064,10 +5376,10 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -5232,10 +5544,10 @@
         </row>
         <row r="45">
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="46">
@@ -5848,106 +6160,114 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="123">
           <cell r="C123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D123">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="124">
           <cell r="C124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D124">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="125">
           <cell r="C125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="D125">
-            <v>35</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="126">
           <cell r="C126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D126">
-            <v>42</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="127">
           <cell r="C127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D127">
-            <v>45</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="128">
           <cell r="C128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="D128">
-            <v>36</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="129">
           <cell r="C129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D129">
-            <v>39</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="130">
           <cell r="C130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D130">
-            <v>41</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="131">
           <cell r="C131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="D131">
-            <v>46</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="132">
           <cell r="C132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="D132">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="133">
           <cell r="C133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D133">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="134">
           <cell r="C134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D134">
-            <v>37</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -6134,10 +6454,10 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -6302,10 +6622,10 @@
         </row>
         <row r="45">
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="46">
@@ -6918,106 +7238,114 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="123">
           <cell r="C123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D123">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="124">
           <cell r="C124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D124">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="125">
           <cell r="C125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="D125">
-            <v>35</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="126">
           <cell r="C126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D126">
-            <v>42</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="127">
           <cell r="C127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D127">
-            <v>45</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="128">
           <cell r="C128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="D128">
-            <v>36</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="129">
           <cell r="C129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D129">
-            <v>39</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="130">
           <cell r="C130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D130">
-            <v>41</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="131">
           <cell r="C131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="D131">
-            <v>46</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="132">
           <cell r="C132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="D132">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="133">
           <cell r="C133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D133">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="134">
           <cell r="C134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D134">
-            <v>37</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -7204,10 +7532,10 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -7372,10 +7700,10 @@
         </row>
         <row r="45">
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="46">
@@ -7988,106 +8316,114 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="123">
           <cell r="C123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D123">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="124">
           <cell r="C124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D124">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="125">
           <cell r="C125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="D125">
-            <v>35</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="126">
           <cell r="C126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D126">
-            <v>42</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="127">
           <cell r="C127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D127">
-            <v>45</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="128">
           <cell r="C128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="D128">
-            <v>36</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="129">
           <cell r="C129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D129">
-            <v>39</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="130">
           <cell r="C130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D130">
-            <v>41</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="131">
           <cell r="C131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="D131">
-            <v>46</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="132">
           <cell r="C132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="D132">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="133">
           <cell r="C133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D133">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="134">
           <cell r="C134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D134">
-            <v>37</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -8274,10 +8610,10 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -8442,10 +8778,10 @@
         </row>
         <row r="45">
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="46">
@@ -9058,106 +9394,114 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="123">
           <cell r="C123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D123">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="124">
           <cell r="C124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D124">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="125">
           <cell r="C125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="D125">
-            <v>35</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="126">
           <cell r="C126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D126">
-            <v>42</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="127">
           <cell r="C127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D127">
-            <v>45</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="128">
           <cell r="C128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="D128">
-            <v>36</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="129">
           <cell r="C129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D129">
-            <v>39</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="130">
           <cell r="C130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D130">
-            <v>41</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="131">
           <cell r="C131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="D131">
-            <v>46</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="132">
           <cell r="C132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="D132">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="133">
           <cell r="C133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D133">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="134">
           <cell r="C134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D134">
-            <v>37</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -9344,10 +9688,10 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -9512,10 +9856,10 @@
         </row>
         <row r="45">
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="46">
@@ -10128,106 +10472,114 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="123">
           <cell r="C123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D123">
-            <v>37</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="124">
           <cell r="C124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D124">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="125">
           <cell r="C125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="D125">
-            <v>35</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="126">
           <cell r="C126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D126">
-            <v>42</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="127">
           <cell r="C127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D127">
-            <v>45</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="128">
           <cell r="C128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="D128">
-            <v>36</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="129">
           <cell r="C129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="D129">
-            <v>39</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="130">
           <cell r="C130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="D130">
-            <v>41</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="131">
           <cell r="C131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="D131">
-            <v>46</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="132">
           <cell r="C132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="D132">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="133">
           <cell r="C133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D133">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="134">
           <cell r="C134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D134">
-            <v>37</v>
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -10944,7 +11296,7 @@
       </c>
       <c r="C3" s="16">
         <f>[2]PM!$C3</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D3" s="16">
         <f>[2]PM!$D3</f>
@@ -10952,34 +11304,34 @@
       </c>
       <c r="E3" s="17">
         <f t="shared" ref="E3:E4" si="0">D3+C3</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F3" s="18" t="str">
         <f t="shared" ref="F3:F4" si="1">IF(E3&lt;=50,"F",IF(E3&lt;=54.99,"P",IF(E3&lt;=59.99,"C",IF(E3&lt;=64.99,"B",IF(E3&lt;=69.99,"B+",IF(E3&lt;=74.99,"A",IF(E3&lt;=79.99,"A+","O")))))))</f>
-        <v>O</v>
+        <v>A</v>
       </c>
       <c r="G3" s="18" t="str">
         <f t="shared" ref="G3:G4" si="2">IF(E3&lt;=50,"0",IF(E3&lt;=54.99,"4",IF(E3&lt;=59.99,"5",IF(E3&lt;=64.99,"6",IF(E3&lt;=69.99,"7",IF(E3&lt;=74.99,"8",IF(E3&lt;=79.99,"9","10")))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="19">
         <v>4</v>
       </c>
       <c r="I3" s="20">
         <f>G3*H3</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J3" s="16">
         <f>[3]FA!$C3</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" s="16">
         <f>[3]FA!$D3</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L3" s="17">
         <f t="shared" ref="L3:L4" si="3">K3+J3</f>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M3" s="18" t="str">
         <f t="shared" ref="M3:M4" si="4">IF(L3&lt;=50,"F",IF(L3&lt;=54.99,"P",IF(L3&lt;=59.99,"C",IF(L3&lt;=64.99,"B",IF(L3&lt;=69.99,"B+",IF(L3&lt;=74.99,"A",IF(L3&lt;=79.99,"A+","O")))))))</f>
@@ -11160,39 +11512,39 @@
       </c>
       <c r="BG3" s="17">
         <f>AZ3+AS3+AE3+X3+J3+C3+Q3+AL3</f>
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="BH3" s="17">
         <f>BA3+AT3+AF3+Y3+K3+D3+R3+AM3</f>
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="BI3" s="17">
         <f t="shared" ref="BI3:BI4" si="30">BH3+BG3</f>
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="BJ3" s="27">
         <f>G3+N3+U3+AB3+AI3+AP3+BD3+AW3</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BK3" s="27">
         <f>I3+P3+W3+AD3+AK3+AY3+BF3+AR3</f>
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="BL3" s="30">
         <f t="shared" ref="BL3:BL4" si="31">(BI3/800)*100</f>
-        <v>77.5</v>
+        <v>73</v>
       </c>
       <c r="BM3" s="17" t="str">
-        <f>IF(BI3&lt;=400,"Unsuccessful","Successful")</f>
-        <v>Successful</v>
+        <f>IF(OR(C3&lt;=20,D3&lt;=30,J3&lt;=20,K3&lt;=30,Q3&lt;=20,R3&lt;=30,X3&lt;=20,Y3&lt;=30,AE3&lt;=20,AF3&lt;=30,AL3&lt;=20,AM3&lt;=30,AS3&lt;=20,AT3&lt;=30,AZ3&lt;=20,BA3&lt;=30),"Unsuccessful","Successful")</f>
+        <v>Unsuccessful</v>
       </c>
       <c r="BN3" s="31">
         <f>BK3/32</f>
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="BO3" s="18" t="str">
         <f t="shared" ref="BO3:BO4" si="32">IF(BL3&lt;=50,"F",IF(BL3&lt;=54.99,"P",IF(BL3&lt;=59.99,"C",IF(BL3&lt;=64.99,"B",IF(BL3&lt;=69.99,"B+",IF(BL3&lt;=74.99,"A",IF(BL3&lt;=79.99,"A+","O")))))))</f>
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="BP3" s="13" t="str">
         <f>IF(BN3&lt;=4,"50",IF(BN3&lt;=4.5,"50-54.99",IF(BN3&lt;=5.5,"55-59.99",IF(BN3&lt;=6.5,"60-64.99",IF(BN3&lt;=7.5,"65-69.99",IF(BN3&lt;=8.5,"70.74.99",IF(BN3&lt;=9.5,"75-79-99","10")))))))</f>
@@ -11449,7 +11801,7 @@
         <v>61.375</v>
       </c>
       <c r="BM4" s="17" t="str">
-        <f t="shared" ref="BM4:BM67" si="33">IF(BI4&lt;=400,"Unsuccessful","Successful")</f>
+        <f t="shared" ref="BM4:BM67" si="33">IF(OR(C4&lt;=20,D4&lt;=30,J4&lt;=20,K4&lt;=30,Q4&lt;=20,R4&lt;=30,X4&lt;=20,Y4&lt;=30,AE4&lt;=20,AF4&lt;=30,AL4&lt;=20,AM4&lt;=30,AS4&lt;=20,AT4&lt;=30,AZ4&lt;=20,BA4&lt;=30),"Unsuccessful","Successful")</f>
         <v>Successful</v>
       </c>
       <c r="BN4" s="8">
@@ -11746,26 +12098,26 @@
       </c>
       <c r="D6" s="16">
         <f>[2]PM!$D6</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="34"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="35"/>
-        <v>A+</v>
+        <v>P</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="37"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J6" s="16">
         <f>[3]FA!$C6</f>
@@ -11962,39 +12314,39 @@
       </c>
       <c r="BH6" s="3">
         <f t="shared" si="67"/>
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="BI6" s="3">
         <f t="shared" si="68"/>
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="BJ6" s="7">
         <f t="shared" si="69"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BK6" s="7">
         <f t="shared" si="70"/>
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="BL6" s="12">
         <f t="shared" si="71"/>
-        <v>76</v>
+        <v>72.875</v>
       </c>
       <c r="BM6" s="17" t="str">
         <f t="shared" si="33"/>
-        <v>Successful</v>
+        <v>Unsuccessful</v>
       </c>
       <c r="BN6" s="8">
         <f t="shared" si="72"/>
-        <v>9</v>
+        <v>8.375</v>
       </c>
       <c r="BO6" s="4" t="str">
         <f t="shared" si="73"/>
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="BP6" s="10" t="str">
         <f t="shared" si="74"/>
-        <v>75-79-99</v>
+        <v>70.74.99</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
@@ -16530,259 +16882,259 @@
       </c>
       <c r="C24" s="16">
         <f>[2]PM!$C24</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D24" s="16">
         <f>[2]PM!$D24</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="34"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="35"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>4</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="37"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J24" s="16">
         <f>[3]FA!$C24</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K24" s="16">
         <f>[3]FA!$D24</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="38"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="N24" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
         <v>4</v>
       </c>
       <c r="P24" s="11">
         <f t="shared" si="41"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="24">
         <f>[4]BS!$C24</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R24" s="24">
         <f>[4]BS!$D24</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <f t="shared" si="42"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="T24" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="U24" s="4" t="str">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V24" s="1">
         <v>4</v>
       </c>
       <c r="W24" s="11">
         <f t="shared" si="45"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X24" s="25">
         <f>[5]OM!$C24</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="26">
         <f>[5]OM!$D24</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="3">
         <f t="shared" si="46"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="4" t="str">
         <f t="shared" si="47"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AB24" s="4" t="str">
         <f t="shared" si="48"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="1">
         <v>4</v>
       </c>
       <c r="AD24" s="11">
         <f t="shared" si="49"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="25">
         <f>[6]ME!$C24</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="26">
         <f>[6]ME!$D24</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="3">
         <f t="shared" si="50"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="4" t="str">
         <f t="shared" si="51"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AI24" s="4" t="str">
         <f t="shared" si="52"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>4</v>
       </c>
       <c r="AK24" s="11">
         <f t="shared" si="53"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="25">
         <f>[7]EMC!$C24</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="25">
         <f>[7]EMC!$D24</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="3">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="4" t="str">
         <f t="shared" si="55"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AP24" s="4" t="str">
         <f t="shared" si="56"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>4</v>
       </c>
       <c r="AR24" s="11">
         <f t="shared" si="57"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="16">
         <f>[8]NSS!$C24</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="16">
         <f>[8]NSS!$D24</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="3">
         <f t="shared" si="58"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="4" t="str">
         <f t="shared" si="59"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AW24" s="4" t="str">
         <f t="shared" si="60"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="1">
         <v>4</v>
       </c>
       <c r="AY24" s="11">
         <f t="shared" si="61"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="25">
         <f>[9]OB!$C24</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="25">
         <f>[9]OB!$D24</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="3">
         <f t="shared" si="62"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="4" t="str">
         <f t="shared" si="63"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="BD24" s="4" t="str">
         <f t="shared" si="64"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="1">
         <v>4</v>
       </c>
       <c r="BF24" s="11">
         <f t="shared" si="65"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="3">
         <f t="shared" si="66"/>
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="3">
         <f t="shared" si="67"/>
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="3">
         <f t="shared" si="68"/>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="BJ24" s="7">
         <f t="shared" si="69"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BK24" s="7">
         <f t="shared" si="70"/>
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="12">
         <f t="shared" si="71"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="BM24" s="17" t="str">
         <f t="shared" si="33"/>
-        <v>Successful</v>
+        <v>Unsuccessful</v>
       </c>
       <c r="BN24" s="8">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BO24" s="4" t="str">
         <f t="shared" si="73"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="BP24" s="10" t="str">
         <f t="shared" si="74"/>
-        <v>65-69.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
@@ -22116,259 +22468,259 @@
       </c>
       <c r="C45" s="16">
         <f>[2]PM!$C45</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D45" s="16">
         <f>[2]PM!$D45</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="34"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4" t="str">
         <f t="shared" si="35"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>4</v>
       </c>
       <c r="I45" s="11">
         <f t="shared" si="37"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J45" s="16">
         <f>[3]FA!$C45</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K45" s="16">
         <f>[3]FA!$D45</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" si="38"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="M45" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="N45" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O45" s="1">
         <v>4</v>
       </c>
       <c r="P45" s="11">
         <f t="shared" si="41"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="24">
         <f>[4]BS!$C45</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R45" s="24">
         <f>[4]BS!$D45</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" si="42"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="T45" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="U45" s="4" t="str">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V45" s="1">
         <v>4</v>
       </c>
       <c r="W45" s="11">
         <f t="shared" si="45"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X45" s="25">
         <f>[5]OM!$C45</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="26">
         <f>[5]OM!$D45</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" si="46"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="4" t="str">
         <f t="shared" si="47"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AB45" s="4" t="str">
         <f t="shared" si="48"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="1">
         <v>4</v>
       </c>
       <c r="AD45" s="11">
         <f t="shared" si="49"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="25">
         <f>[6]ME!$C45</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="26">
         <f>[6]ME!$D45</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="3">
         <f t="shared" si="50"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="4" t="str">
         <f t="shared" si="51"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AI45" s="4" t="str">
         <f t="shared" si="52"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="1">
         <v>4</v>
       </c>
       <c r="AK45" s="11">
         <f t="shared" si="53"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="25">
         <f>[7]EMC!$C45</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="25">
         <f>[7]EMC!$D45</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AN45" s="3">
         <f t="shared" si="54"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AO45" s="4" t="str">
         <f t="shared" si="55"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AP45" s="4" t="str">
         <f t="shared" si="56"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
         <v>4</v>
       </c>
       <c r="AR45" s="11">
         <f t="shared" si="57"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="16">
         <f>[8]NSS!$C45</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="16">
         <f>[8]NSS!$D45</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="3">
         <f t="shared" si="58"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="4" t="str">
         <f t="shared" si="59"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AW45" s="4" t="str">
         <f t="shared" si="60"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="1">
         <v>4</v>
       </c>
       <c r="AY45" s="11">
         <f t="shared" si="61"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="25">
         <f>[9]OB!$C45</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="25">
         <f>[9]OB!$D45</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="3">
         <f t="shared" si="62"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="BC45" s="4" t="str">
         <f t="shared" si="63"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="BD45" s="4" t="str">
         <f t="shared" si="64"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE45" s="1">
         <v>4</v>
       </c>
       <c r="BF45" s="11">
         <f t="shared" si="65"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BG45" s="3">
         <f t="shared" si="66"/>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="BH45" s="3">
         <f t="shared" si="67"/>
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="BI45" s="3">
         <f t="shared" si="68"/>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="BJ45" s="7">
         <f t="shared" si="69"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BK45" s="7">
         <f t="shared" si="70"/>
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="BL45" s="12">
         <f t="shared" si="71"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="BM45" s="17" t="str">
         <f t="shared" si="33"/>
-        <v>Successful</v>
+        <v>Unsuccessful</v>
       </c>
       <c r="BN45" s="8">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BO45" s="4" t="str">
         <f t="shared" si="73"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="BP45" s="10" t="str">
         <f t="shared" si="74"/>
-        <v>65-69.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:68" x14ac:dyDescent="0.25">
@@ -28473,7 +28825,7 @@
         <v>65</v>
       </c>
       <c r="BM68" s="17" t="str">
-        <f t="shared" ref="BM68:BM122" si="75">IF(BI68&lt;=400,"Unsuccessful","Successful")</f>
+        <f t="shared" ref="BM68:BM131" si="75">IF(OR(C68&lt;=20,D68&lt;=30,J68&lt;=20,K68&lt;=30,Q68&lt;=20,R68&lt;=30,X68&lt;=20,Y68&lt;=30,AE68&lt;=20,AF68&lt;=30,AL68&lt;=20,AM68&lt;=30,AS68&lt;=20,AT68&lt;=30,AZ68&lt;=20,BA68&lt;=30),"Unsuccessful","Successful")</f>
         <v>Successful</v>
       </c>
       <c r="BN68" s="8">
@@ -42336,26 +42688,26 @@
       </c>
       <c r="D121" s="16">
         <f>[2]PM!$D121</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E121" s="3">
         <f t="shared" si="76"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F121" s="4" t="str">
         <f t="shared" si="77"/>
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" si="78"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H121" s="1">
         <v>4</v>
       </c>
       <c r="I121" s="11">
         <f t="shared" si="79"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J121" s="16">
         <f>[3]FA!$C121</f>
@@ -42552,23 +42904,23 @@
       </c>
       <c r="BH121" s="3">
         <f t="shared" si="109"/>
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="BI121" s="3">
         <f t="shared" si="110"/>
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="BJ121" s="7">
         <f t="shared" si="111"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BK121" s="7">
         <f t="shared" si="112"/>
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="BL121" s="12">
         <f t="shared" si="113"/>
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="BM121" s="17" t="str">
         <f t="shared" si="75"/>
@@ -42576,7 +42928,7 @@
       </c>
       <c r="BN121" s="8">
         <f t="shared" si="114"/>
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="BO121" s="4" t="str">
         <f t="shared" si="115"/>
@@ -42598,259 +42950,259 @@
       </c>
       <c r="C122" s="16">
         <f>[2]PM!$C122</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D122" s="16">
         <f>[2]PM!$D122</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E122" s="3">
         <f t="shared" si="76"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F122" s="4" t="str">
         <f t="shared" si="77"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" si="78"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H122" s="1">
         <v>4</v>
       </c>
       <c r="I122" s="11">
         <f t="shared" si="79"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J122" s="16">
         <f>[3]FA!$C122</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K122" s="16">
         <f>[3]FA!$D122</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L122" s="3">
         <f t="shared" si="80"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="M122" s="4" t="str">
         <f t="shared" si="81"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="N122" s="4" t="str">
         <f t="shared" si="82"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O122" s="1">
         <v>4</v>
       </c>
       <c r="P122" s="11">
         <f t="shared" si="83"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="24">
         <f>[4]BS!$C122</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R122" s="24">
         <f>[4]BS!$D122</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S122" s="3">
         <f t="shared" si="84"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="T122" s="4" t="str">
         <f t="shared" si="85"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="U122" s="4" t="str">
         <f t="shared" si="86"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V122" s="1">
         <v>4</v>
       </c>
       <c r="W122" s="11">
         <f t="shared" si="87"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X122" s="25">
         <f>[5]OM!$C122</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y122" s="26">
         <f>[5]OM!$D122</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z122" s="3">
         <f t="shared" si="88"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AA122" s="4" t="str">
         <f t="shared" si="89"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AB122" s="4" t="str">
         <f t="shared" si="90"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC122" s="1">
         <v>4</v>
       </c>
       <c r="AD122" s="11">
         <f t="shared" si="91"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE122" s="25">
         <f>[6]ME!$C122</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF122" s="26">
         <f>[6]ME!$D122</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AG122" s="3">
         <f t="shared" si="92"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AH122" s="4" t="str">
         <f t="shared" si="93"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AI122" s="4" t="str">
         <f t="shared" si="94"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ122" s="1">
         <v>4</v>
       </c>
       <c r="AK122" s="11">
         <f t="shared" si="95"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL122" s="25">
         <f>[7]EMC!$C122</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM122" s="25">
         <f>[7]EMC!$D122</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AN122" s="3">
         <f t="shared" si="96"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AO122" s="4" t="str">
         <f t="shared" si="97"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AP122" s="4" t="str">
         <f t="shared" si="98"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ122" s="1">
         <v>4</v>
       </c>
       <c r="AR122" s="11">
         <f t="shared" si="99"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS122" s="16">
         <f>[8]NSS!$C122</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT122" s="16">
         <f>[8]NSS!$D122</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AU122" s="3">
         <f t="shared" si="100"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AV122" s="4" t="str">
         <f t="shared" si="101"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AW122" s="4" t="str">
         <f t="shared" si="102"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX122" s="1">
         <v>4</v>
       </c>
       <c r="AY122" s="11">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AZ122" s="25">
         <f>[9]OB!$C122</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BA122" s="25">
         <f>[9]OB!$D122</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BB122" s="3">
         <f t="shared" si="104"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="BC122" s="4" t="str">
         <f t="shared" si="105"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="BD122" s="4" t="str">
         <f t="shared" si="106"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE122" s="1">
         <v>4</v>
       </c>
       <c r="BF122" s="11">
         <f t="shared" si="107"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BG122" s="3">
         <f t="shared" si="108"/>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="BH122" s="3">
         <f t="shared" si="109"/>
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="BI122" s="3">
         <f t="shared" si="110"/>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="BJ122" s="7">
         <f t="shared" si="111"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BK122" s="7">
         <f t="shared" si="112"/>
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="BL122" s="12">
         <f t="shared" si="113"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="BM122" s="17" t="str">
         <f t="shared" si="75"/>
-        <v>Successful</v>
+        <v>Unsuccessful</v>
       </c>
       <c r="BN122" s="8">
         <f t="shared" si="114"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BO122" s="4" t="str">
         <f t="shared" si="115"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="BP122" s="10" t="str">
         <f t="shared" si="116"/>
-        <v>65-69.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:68" x14ac:dyDescent="0.25">
@@ -42945,178 +43297,178 @@
       </c>
       <c r="X123" s="25">
         <f>[5]OM!$C123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y123" s="26">
         <f>[5]OM!$D123</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z123" s="3">
         <f t="shared" ref="Z123:Z130" si="129">Y123+X123</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA123" s="4" t="str">
         <f t="shared" ref="AA123:AA130" si="130">IF(Z123&lt;=50,"F",IF(Z123&lt;=54.99,"P",IF(Z123&lt;=59.99,"C",IF(Z123&lt;=64.99,"B",IF(Z123&lt;=69.99,"B+",IF(Z123&lt;=74.99,"A",IF(Z123&lt;=79.99,"A+","O")))))))</f>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AB123" s="4" t="str">
         <f t="shared" ref="AB123:AB130" si="131">IF(Z123&lt;=50,"0",IF(Z123&lt;=54.99,"4",IF(Z123&lt;=59.99,"5",IF(Z123&lt;=64.99,"6",IF(Z123&lt;=69.99,"7",IF(Z123&lt;=74.99,"8",IF(Z123&lt;=79.99,"9","10")))))))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC123" s="1">
         <v>4</v>
       </c>
       <c r="AD123" s="11">
         <f t="shared" ref="AD123:AD130" si="132">AB123*AC123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE123" s="25">
         <f>[6]ME!$C123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF123" s="26">
         <f>[6]ME!$D123</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AG123" s="3">
         <f t="shared" ref="AG123:AG130" si="133">AF123+AE123</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AH123" s="4" t="str">
         <f t="shared" ref="AH123:AH130" si="134">IF(AG123&lt;=50,"F",IF(AG123&lt;=54.99,"P",IF(AG123&lt;=59.99,"C",IF(AG123&lt;=64.99,"B",IF(AG123&lt;=69.99,"B+",IF(AG123&lt;=74.99,"A",IF(AG123&lt;=79.99,"A+","O")))))))</f>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AI123" s="4" t="str">
         <f t="shared" ref="AI123:AI130" si="135">IF(AG123&lt;=50,"0",IF(AG123&lt;=54.99,"4",IF(AG123&lt;=59.99,"5",IF(AG123&lt;=64.99,"6",IF(AG123&lt;=69.99,"7",IF(AG123&lt;=74.99,"8",IF(AG123&lt;=79.99,"9","10")))))))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ123" s="1">
         <v>4</v>
       </c>
       <c r="AK123" s="11">
         <f t="shared" ref="AK123:AK130" si="136">AI123*AJ123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL123" s="25">
         <f>[7]EMC!$C123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM123" s="25">
         <f>[7]EMC!$D123</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AN123" s="3">
         <f t="shared" ref="AN123:AN130" si="137">AM123+AL123</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AO123" s="4" t="str">
         <f t="shared" ref="AO123:AO130" si="138">IF(AN123&lt;=50,"F",IF(AN123&lt;=54.99,"P",IF(AN123&lt;=59.99,"C",IF(AN123&lt;=64.99,"B",IF(AN123&lt;=69.99,"B+",IF(AN123&lt;=74.99,"A",IF(AN123&lt;=79.99,"A+","O")))))))</f>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AP123" s="4" t="str">
         <f t="shared" ref="AP123:AP130" si="139">IF(AN123&lt;=50,"0",IF(AN123&lt;=54.99,"4",IF(AN123&lt;=59.99,"5",IF(AN123&lt;=64.99,"6",IF(AN123&lt;=69.99,"7",IF(AN123&lt;=74.99,"8",IF(AN123&lt;=79.99,"9","10")))))))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ123" s="1">
         <v>4</v>
       </c>
       <c r="AR123" s="11">
         <f t="shared" ref="AR123:AR130" si="140">AP123*AQ123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS123" s="16">
         <f>[8]NSS!$C123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT123" s="16">
         <f>[8]NSS!$D123</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AU123" s="3">
         <f t="shared" ref="AU123:AU130" si="141">AT123+AS123</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AV123" s="4" t="str">
         <f t="shared" ref="AV123:AV130" si="142">IF(AU123&lt;=50,"F",IF(AU123&lt;=54.99,"P",IF(AU123&lt;=59.99,"C",IF(AU123&lt;=64.99,"B",IF(AU123&lt;=69.99,"B+",IF(AU123&lt;=74.99,"A",IF(AU123&lt;=79.99,"A+","O")))))))</f>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AW123" s="4" t="str">
         <f t="shared" ref="AW123:AW130" si="143">IF(AU123&lt;=50,"0",IF(AU123&lt;=54.99,"4",IF(AU123&lt;=59.99,"5",IF(AU123&lt;=64.99,"6",IF(AU123&lt;=69.99,"7",IF(AU123&lt;=74.99,"8",IF(AU123&lt;=79.99,"9","10")))))))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX123" s="1">
         <v>4</v>
       </c>
       <c r="AY123" s="11">
         <f t="shared" ref="AY123:AY130" si="144">AW123*AX123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AZ123" s="25">
         <f>[9]OB!$C123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BA123" s="25">
         <f>[9]OB!$D123</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="BB123" s="3">
         <f t="shared" ref="BB123:BB130" si="145">BA123+AZ123</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="BC123" s="4" t="str">
         <f t="shared" ref="BC123:BC130" si="146">IF(BB123&lt;=50,"F",IF(BB123&lt;=54.99,"P",IF(BB123&lt;=59.99,"C",IF(BB123&lt;=64.99,"B",IF(BB123&lt;=69.99,"B+",IF(BB123&lt;=74.99,"A",IF(BB123&lt;=79.99,"A+","O")))))))</f>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="BD123" s="4" t="str">
         <f t="shared" ref="BD123:BD130" si="147">IF(BB123&lt;=50,"0",IF(BB123&lt;=54.99,"4",IF(BB123&lt;=59.99,"5",IF(BB123&lt;=64.99,"6",IF(BB123&lt;=69.99,"7",IF(BB123&lt;=74.99,"8",IF(BB123&lt;=79.99,"9","10")))))))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE123" s="1">
         <v>4</v>
       </c>
       <c r="BF123" s="11">
         <f t="shared" ref="BF123:BF130" si="148">BD123*BE123</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BG123" s="3">
         <f t="shared" ref="BG123:BG130" si="149">AZ123+AS123+AE123+X123+J123+C123+Q123+AL123</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="BH123" s="3">
         <f t="shared" ref="BH123:BH130" si="150">BA123+AT123+AF123+Y123+K123+D123+R123+AM123</f>
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="BI123" s="3">
         <f t="shared" ref="BI123:BI130" si="151">BH123+BG123</f>
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="BJ123" s="7">
         <f t="shared" ref="BJ123:BJ130" si="152">G123+N123+U123+AB123+AI123+AP123+BD123+AW123</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BK123" s="7">
         <f t="shared" ref="BK123:BK130" si="153">I123+P123+W123+AD123+AK123+AY123+BF123+AR123</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="BL123" s="12">
         <f t="shared" ref="BL123:BL130" si="154">(BI123/800)*100</f>
-        <v>40.625</v>
+        <v>0</v>
       </c>
       <c r="BM123" s="17" t="str">
-        <f t="shared" ref="BM123:BM130" si="155">IF(BI123&lt;=400,"Unsuccessful","Successful")</f>
+        <f t="shared" si="75"/>
         <v>Unsuccessful</v>
       </c>
       <c r="BN123" s="8">
-        <f t="shared" ref="BN123:BN130" si="156">BK123/32</f>
-        <v>4.375</v>
+        <f t="shared" ref="BN123:BN130" si="155">BK123/32</f>
+        <v>0</v>
       </c>
       <c r="BO123" s="4" t="str">
-        <f t="shared" ref="BO123:BO130" si="157">IF(BL123&lt;=50,"F",IF(BL123&lt;=54.99,"P",IF(BL123&lt;=59.99,"C",IF(BL123&lt;=64.99,"B",IF(BL123&lt;=69.99,"B+",IF(BL123&lt;=74.99,"A",IF(BL123&lt;=79.99,"A+","O")))))))</f>
+        <f t="shared" ref="BO123:BO130" si="156">IF(BL123&lt;=50,"F",IF(BL123&lt;=54.99,"P",IF(BL123&lt;=59.99,"C",IF(BL123&lt;=64.99,"B",IF(BL123&lt;=69.99,"B+",IF(BL123&lt;=74.99,"A",IF(BL123&lt;=79.99,"A+","O")))))))</f>
         <v>F</v>
       </c>
       <c r="BP123" s="10" t="str">
-        <f t="shared" ref="BP123:BP130" si="158">IF(BN123&lt;=4,"50",IF(BN123&lt;=4.5,"50-54.99",IF(BN123&lt;=5.5,"55-59.99",IF(BN123&lt;=6.5,"60-64.99",IF(BN123&lt;=7.5,"65-69.99",IF(BN123&lt;=8.5,"70.74.99",IF(BN123&lt;=9.5,"75-79-99","10")))))))</f>
-        <v>50-54.99</v>
+        <f t="shared" ref="BP123:BP130" si="157">IF(BN123&lt;=4,"50",IF(BN123&lt;=4.5,"50-54.99",IF(BN123&lt;=5.5,"55-59.99",IF(BN123&lt;=6.5,"60-64.99",IF(BN123&lt;=7.5,"65-69.99",IF(BN123&lt;=8.5,"70.74.99",IF(BN123&lt;=9.5,"75-79-99","10")))))))</f>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:68" x14ac:dyDescent="0.25">
@@ -43211,178 +43563,178 @@
       </c>
       <c r="X124" s="25">
         <f>[5]OM!$C124</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y124" s="26">
         <f>[5]OM!$D124</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z124" s="3">
         <f t="shared" si="129"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AA124" s="4" t="str">
         <f t="shared" si="130"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AB124" s="4" t="str">
         <f t="shared" si="131"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC124" s="1">
         <v>4</v>
       </c>
       <c r="AD124" s="11">
         <f t="shared" si="132"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE124" s="25">
         <f>[6]ME!$C124</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF124" s="26">
         <f>[6]ME!$D124</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AG124" s="3">
         <f t="shared" si="133"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AH124" s="4" t="str">
         <f t="shared" si="134"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AI124" s="4" t="str">
         <f t="shared" si="135"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ124" s="1">
         <v>4</v>
       </c>
       <c r="AK124" s="11">
         <f t="shared" si="136"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL124" s="25">
         <f>[7]EMC!$C124</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM124" s="25">
         <f>[7]EMC!$D124</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AN124" s="3">
         <f t="shared" si="137"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AO124" s="4" t="str">
         <f t="shared" si="138"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AP124" s="4" t="str">
         <f t="shared" si="139"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ124" s="1">
         <v>4</v>
       </c>
       <c r="AR124" s="11">
         <f t="shared" si="140"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AS124" s="16">
         <f>[8]NSS!$C124</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT124" s="16">
         <f>[8]NSS!$D124</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AU124" s="3">
         <f t="shared" si="141"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AV124" s="4" t="str">
         <f t="shared" si="142"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AW124" s="4" t="str">
         <f t="shared" si="143"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX124" s="1">
         <v>4</v>
       </c>
       <c r="AY124" s="11">
         <f t="shared" si="144"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AZ124" s="25">
         <f>[9]OB!$C124</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BA124" s="25">
         <f>[9]OB!$D124</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BB124" s="3">
         <f t="shared" si="145"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BC124" s="4" t="str">
         <f t="shared" si="146"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="BD124" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BE124" s="1">
         <v>4</v>
       </c>
       <c r="BF124" s="11">
         <f t="shared" si="148"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BG124" s="3">
         <f t="shared" si="149"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BH124" s="3">
         <f t="shared" si="150"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BI124" s="3">
         <f t="shared" si="151"/>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="BJ124" s="7">
         <f t="shared" si="152"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BK124" s="7">
         <f t="shared" si="153"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BL124" s="12">
         <f t="shared" si="154"/>
-        <v>43.75</v>
+        <v>0</v>
       </c>
       <c r="BM124" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN124" s="8">
         <f t="shared" si="155"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN124" s="8">
+        <v>0</v>
+      </c>
+      <c r="BO124" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>5</v>
-      </c>
-      <c r="BO124" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BP124" s="10" t="str">
         <f t="shared" si="157"/>
-        <v>F</v>
-      </c>
-      <c r="BP124" s="10" t="str">
-        <f t="shared" si="158"/>
-        <v>55-59.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:68" x14ac:dyDescent="0.25">
@@ -43477,177 +43829,177 @@
       </c>
       <c r="X125" s="25">
         <f>[5]OM!$C125</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y125" s="26">
         <f>[5]OM!$D125</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Z125" s="3">
         <f t="shared" si="129"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA125" s="4" t="str">
         <f t="shared" si="130"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="AB125" s="4" t="str">
         <f t="shared" si="131"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC125" s="1">
         <v>4</v>
       </c>
       <c r="AD125" s="11">
         <f t="shared" si="132"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE125" s="25">
         <f>[6]ME!$C125</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AF125" s="26">
         <f>[6]ME!$D125</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AG125" s="3">
         <f t="shared" si="133"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AH125" s="4" t="str">
         <f t="shared" si="134"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="AI125" s="4" t="str">
         <f t="shared" si="135"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ125" s="1">
         <v>4</v>
       </c>
       <c r="AK125" s="11">
         <f t="shared" si="136"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL125" s="25">
         <f>[7]EMC!$C125</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM125" s="25">
         <f>[7]EMC!$D125</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AN125" s="3">
         <f t="shared" si="137"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AO125" s="4" t="str">
         <f t="shared" si="138"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="AP125" s="4" t="str">
         <f t="shared" si="139"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AQ125" s="1">
         <v>4</v>
       </c>
       <c r="AR125" s="11">
         <f t="shared" si="140"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AS125" s="16">
         <f>[8]NSS!$C125</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT125" s="16">
         <f>[8]NSS!$D125</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AU125" s="3">
         <f t="shared" si="141"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AV125" s="4" t="str">
         <f t="shared" si="142"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="AW125" s="4" t="str">
         <f t="shared" si="143"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX125" s="1">
         <v>4</v>
       </c>
       <c r="AY125" s="11">
         <f t="shared" si="144"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AZ125" s="25">
         <f>[9]OB!$C125</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BA125" s="25">
         <f>[9]OB!$D125</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BB125" s="3">
         <f t="shared" si="145"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BC125" s="4" t="str">
         <f t="shared" si="146"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="BD125" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BE125" s="1">
         <v>4</v>
       </c>
       <c r="BF125" s="11">
         <f t="shared" si="148"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BG125" s="3">
         <f t="shared" si="149"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="BH125" s="3">
         <f t="shared" si="150"/>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="BI125" s="3">
         <f t="shared" si="151"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BJ125" s="7">
         <f t="shared" si="152"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BK125" s="7">
         <f t="shared" si="153"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BL125" s="12">
         <f t="shared" si="154"/>
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="BM125" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN125" s="8">
         <f t="shared" si="155"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN125" s="8">
+        <v>0</v>
+      </c>
+      <c r="BO125" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>3.75</v>
-      </c>
-      <c r="BO125" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BP125" s="10" t="str">
         <f t="shared" si="157"/>
-        <v>F</v>
-      </c>
-      <c r="BP125" s="10" t="str">
-        <f t="shared" si="158"/>
         <v>50</v>
       </c>
     </row>
@@ -43743,178 +44095,178 @@
       </c>
       <c r="X126" s="25">
         <f>[5]OM!$C126</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y126" s="26">
         <f>[5]OM!$D126</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Z126" s="3">
         <f t="shared" si="129"/>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AA126" s="4" t="str">
         <f t="shared" si="130"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AB126" s="4" t="str">
         <f t="shared" si="131"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC126" s="1">
         <v>4</v>
       </c>
       <c r="AD126" s="11">
         <f t="shared" si="132"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE126" s="25">
         <f>[6]ME!$C126</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF126" s="26">
         <f>[6]ME!$D126</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AG126" s="3">
         <f t="shared" si="133"/>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AH126" s="4" t="str">
         <f t="shared" si="134"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AI126" s="4" t="str">
         <f t="shared" si="135"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ126" s="1">
         <v>4</v>
       </c>
       <c r="AK126" s="11">
         <f t="shared" si="136"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL126" s="25">
         <f>[7]EMC!$C126</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM126" s="25">
         <f>[7]EMC!$D126</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AN126" s="3">
         <f t="shared" si="137"/>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AO126" s="4" t="str">
         <f t="shared" si="138"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AP126" s="4" t="str">
         <f t="shared" si="139"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ126" s="1">
         <v>4</v>
       </c>
       <c r="AR126" s="11">
         <f t="shared" si="140"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AS126" s="16">
         <f>[8]NSS!$C126</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AT126" s="16">
         <f>[8]NSS!$D126</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AU126" s="3">
         <f t="shared" si="141"/>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AV126" s="4" t="str">
         <f t="shared" si="142"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AW126" s="4" t="str">
         <f t="shared" si="143"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX126" s="1">
         <v>4</v>
       </c>
       <c r="AY126" s="11">
         <f t="shared" si="144"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AZ126" s="25">
         <f>[9]OB!$C126</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BA126" s="25">
         <f>[9]OB!$D126</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="BB126" s="3">
         <f t="shared" si="145"/>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="BC126" s="4" t="str">
         <f t="shared" si="146"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="BD126" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BE126" s="1">
         <v>4</v>
       </c>
       <c r="BF126" s="11">
         <f t="shared" si="148"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BG126" s="3">
         <f t="shared" si="149"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BH126" s="3">
         <f t="shared" si="150"/>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="BI126" s="3">
         <f t="shared" si="151"/>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="BJ126" s="7">
         <f t="shared" si="152"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BK126" s="7">
         <f t="shared" si="153"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BL126" s="12">
         <f t="shared" si="154"/>
-        <v>46.25</v>
+        <v>0</v>
       </c>
       <c r="BM126" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN126" s="8">
         <f t="shared" si="155"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN126" s="8">
+        <v>0</v>
+      </c>
+      <c r="BO126" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>5</v>
-      </c>
-      <c r="BO126" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BP126" s="10" t="str">
         <f t="shared" si="157"/>
-        <v>F</v>
-      </c>
-      <c r="BP126" s="10" t="str">
-        <f t="shared" si="158"/>
-        <v>55-59.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:68" x14ac:dyDescent="0.25">
@@ -44009,178 +44361,178 @@
       </c>
       <c r="X127" s="25">
         <f>[5]OM!$C127</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y127" s="26">
         <f>[5]OM!$D127</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Z127" s="3">
         <f t="shared" si="129"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AA127" s="4" t="str">
         <f t="shared" si="130"/>
-        <v>A+</v>
+        <v>F</v>
       </c>
       <c r="AB127" s="4" t="str">
         <f t="shared" si="131"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC127" s="1">
         <v>4</v>
       </c>
       <c r="AD127" s="11">
         <f t="shared" si="132"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AE127" s="25">
         <f>[6]ME!$C127</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF127" s="26">
         <f>[6]ME!$D127</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AG127" s="3">
         <f t="shared" si="133"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AH127" s="4" t="str">
         <f t="shared" si="134"/>
-        <v>A+</v>
+        <v>F</v>
       </c>
       <c r="AI127" s="4" t="str">
         <f t="shared" si="135"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AJ127" s="1">
         <v>4</v>
       </c>
       <c r="AK127" s="11">
         <f t="shared" si="136"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AL127" s="25">
         <f>[7]EMC!$C127</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM127" s="25">
         <f>[7]EMC!$D127</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AN127" s="3">
         <f t="shared" si="137"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AO127" s="4" t="str">
         <f t="shared" si="138"/>
-        <v>A+</v>
+        <v>F</v>
       </c>
       <c r="AP127" s="4" t="str">
         <f t="shared" si="139"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AQ127" s="1">
         <v>4</v>
       </c>
       <c r="AR127" s="11">
         <f t="shared" si="140"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AS127" s="16">
         <f>[8]NSS!$C127</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT127" s="16">
         <f>[8]NSS!$D127</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AU127" s="3">
         <f t="shared" si="141"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AV127" s="4" t="str">
         <f t="shared" si="142"/>
-        <v>A+</v>
+        <v>F</v>
       </c>
       <c r="AW127" s="4" t="str">
         <f t="shared" si="143"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX127" s="1">
         <v>4</v>
       </c>
       <c r="AY127" s="11">
         <f t="shared" si="144"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AZ127" s="25">
         <f>[9]OB!$C127</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BA127" s="25">
         <f>[9]OB!$D127</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BB127" s="3">
         <f t="shared" si="145"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="BC127" s="4" t="str">
         <f t="shared" si="146"/>
-        <v>A+</v>
+        <v>F</v>
       </c>
       <c r="BD127" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BE127" s="1">
         <v>4</v>
       </c>
       <c r="BF127" s="11">
         <f t="shared" si="148"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BG127" s="3">
         <f t="shared" si="149"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="BH127" s="3">
         <f t="shared" si="150"/>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="BI127" s="3">
         <f t="shared" si="151"/>
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="BJ127" s="7">
         <f t="shared" si="152"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BK127" s="7">
         <f t="shared" si="153"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="BL127" s="12">
         <f t="shared" si="154"/>
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="BM127" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN127" s="8">
         <f t="shared" si="155"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN127" s="8">
+        <v>0</v>
+      </c>
+      <c r="BO127" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>5.625</v>
-      </c>
-      <c r="BO127" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BP127" s="10" t="str">
         <f t="shared" si="157"/>
-        <v>F</v>
-      </c>
-      <c r="BP127" s="10" t="str">
-        <f t="shared" si="158"/>
-        <v>60-64.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:68" x14ac:dyDescent="0.25">
@@ -44275,178 +44627,178 @@
       </c>
       <c r="X128" s="25">
         <f>[5]OM!$C128</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y128" s="26">
         <f>[5]OM!$D128</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Z128" s="3">
         <f t="shared" si="129"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AA128" s="4" t="str">
         <f t="shared" si="130"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AB128" s="4" t="str">
         <f t="shared" si="131"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC128" s="1">
         <v>4</v>
       </c>
       <c r="AD128" s="11">
         <f t="shared" si="132"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE128" s="25">
         <f>[6]ME!$C128</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AF128" s="26">
         <f>[6]ME!$D128</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AG128" s="3">
         <f t="shared" si="133"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AH128" s="4" t="str">
         <f t="shared" si="134"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AI128" s="4" t="str">
         <f t="shared" si="135"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ128" s="1">
         <v>4</v>
       </c>
       <c r="AK128" s="11">
         <f t="shared" si="136"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL128" s="25">
         <f>[7]EMC!$C128</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AM128" s="25">
         <f>[7]EMC!$D128</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AN128" s="3">
         <f t="shared" si="137"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AO128" s="4" t="str">
         <f t="shared" si="138"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AP128" s="4" t="str">
         <f t="shared" si="139"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ128" s="1">
         <v>4</v>
       </c>
       <c r="AR128" s="11">
         <f t="shared" si="140"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS128" s="16">
         <f>[8]NSS!$C128</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AT128" s="16">
         <f>[8]NSS!$D128</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AU128" s="3">
         <f t="shared" si="141"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AV128" s="4" t="str">
         <f t="shared" si="142"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="AW128" s="4" t="str">
         <f t="shared" si="143"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX128" s="1">
         <v>4</v>
       </c>
       <c r="AY128" s="11">
         <f t="shared" si="144"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AZ128" s="25">
         <f>[9]OB!$C128</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BA128" s="25">
         <f>[9]OB!$D128</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BB128" s="3">
         <f t="shared" si="145"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="BC128" s="4" t="str">
         <f t="shared" si="146"/>
-        <v>B+</v>
+        <v>F</v>
       </c>
       <c r="BD128" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE128" s="1">
         <v>4</v>
       </c>
       <c r="BF128" s="11">
         <f t="shared" si="148"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BG128" s="3">
         <f t="shared" si="149"/>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="BH128" s="3">
         <f t="shared" si="150"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="BI128" s="3">
         <f t="shared" si="151"/>
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="BJ128" s="7">
         <f t="shared" si="152"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BK128" s="7">
         <f t="shared" si="153"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="BL128" s="12">
         <f t="shared" si="154"/>
-        <v>43.125</v>
+        <v>0</v>
       </c>
       <c r="BM128" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN128" s="8">
         <f t="shared" si="155"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN128" s="8">
+        <v>0</v>
+      </c>
+      <c r="BO128" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>4.375</v>
-      </c>
-      <c r="BO128" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BP128" s="10" t="str">
         <f t="shared" si="157"/>
-        <v>F</v>
-      </c>
-      <c r="BP128" s="10" t="str">
-        <f t="shared" si="158"/>
-        <v>50-54.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:68" x14ac:dyDescent="0.25">
@@ -44541,178 +44893,178 @@
       </c>
       <c r="X129" s="25">
         <f>[5]OM!$C129</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y129" s="26">
         <f>[5]OM!$D129</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Z129" s="3">
         <f t="shared" si="129"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AA129" s="4" t="str">
         <f t="shared" si="130"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AB129" s="4" t="str">
         <f t="shared" si="131"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC129" s="1">
         <v>4</v>
       </c>
       <c r="AD129" s="11">
         <f t="shared" si="132"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE129" s="25">
         <f>[6]ME!$C129</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF129" s="26">
         <f>[6]ME!$D129</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AG129" s="3">
         <f t="shared" si="133"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AH129" s="4" t="str">
         <f t="shared" si="134"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AI129" s="4" t="str">
         <f t="shared" si="135"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ129" s="1">
         <v>4</v>
       </c>
       <c r="AK129" s="11">
         <f t="shared" si="136"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL129" s="25">
         <f>[7]EMC!$C129</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM129" s="25">
         <f>[7]EMC!$D129</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AN129" s="3">
         <f t="shared" si="137"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AO129" s="4" t="str">
         <f t="shared" si="138"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AP129" s="4" t="str">
         <f t="shared" si="139"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ129" s="1">
         <v>4</v>
       </c>
       <c r="AR129" s="11">
         <f t="shared" si="140"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AS129" s="16">
         <f>[8]NSS!$C129</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AT129" s="16">
         <f>[8]NSS!$D129</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AU129" s="3">
         <f t="shared" si="141"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AV129" s="4" t="str">
         <f t="shared" si="142"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AW129" s="4" t="str">
         <f t="shared" si="143"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX129" s="1">
         <v>4</v>
       </c>
       <c r="AY129" s="11">
         <f t="shared" si="144"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AZ129" s="25">
         <f>[9]OB!$C129</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BA129" s="25">
         <f>[9]OB!$D129</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="BB129" s="3">
         <f t="shared" si="145"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="BC129" s="4" t="str">
         <f t="shared" si="146"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="BD129" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BE129" s="1">
         <v>4</v>
       </c>
       <c r="BF129" s="11">
         <f t="shared" si="148"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BG129" s="3">
         <f t="shared" si="149"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BH129" s="3">
         <f t="shared" si="150"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="BI129" s="3">
         <f t="shared" si="151"/>
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="BJ129" s="7">
         <f t="shared" si="152"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BK129" s="7">
         <f t="shared" si="153"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BL129" s="12">
         <f t="shared" si="154"/>
-        <v>44.375</v>
+        <v>0</v>
       </c>
       <c r="BM129" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN129" s="8">
         <f t="shared" si="155"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN129" s="8">
+        <v>0</v>
+      </c>
+      <c r="BO129" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>5</v>
-      </c>
-      <c r="BO129" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BP129" s="10" t="str">
         <f t="shared" si="157"/>
-        <v>F</v>
-      </c>
-      <c r="BP129" s="10" t="str">
-        <f t="shared" si="158"/>
-        <v>55-59.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:68" x14ac:dyDescent="0.25">
@@ -44807,178 +45159,178 @@
       </c>
       <c r="X130" s="25">
         <f>[5]OM!$C130</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y130" s="26">
         <f>[5]OM!$D130</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Z130" s="3">
         <f t="shared" si="129"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AA130" s="4" t="str">
         <f t="shared" si="130"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AB130" s="4" t="str">
         <f t="shared" si="131"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC130" s="1">
         <v>4</v>
       </c>
       <c r="AD130" s="11">
         <f t="shared" si="132"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE130" s="25">
         <f>[6]ME!$C130</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF130" s="26">
         <f>[6]ME!$D130</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AG130" s="3">
         <f t="shared" si="133"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AH130" s="4" t="str">
         <f t="shared" si="134"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AI130" s="4" t="str">
         <f t="shared" si="135"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ130" s="1">
         <v>4</v>
       </c>
       <c r="AK130" s="11">
         <f t="shared" si="136"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL130" s="25">
         <f>[7]EMC!$C130</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM130" s="25">
         <f>[7]EMC!$D130</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AN130" s="3">
         <f t="shared" si="137"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AO130" s="4" t="str">
         <f t="shared" si="138"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AP130" s="4" t="str">
         <f t="shared" si="139"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ130" s="1">
         <v>4</v>
       </c>
       <c r="AR130" s="11">
         <f t="shared" si="140"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AS130" s="16">
         <f>[8]NSS!$C130</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT130" s="16">
         <f>[8]NSS!$D130</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AU130" s="3">
         <f t="shared" si="141"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AV130" s="4" t="str">
         <f t="shared" si="142"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="AW130" s="4" t="str">
         <f t="shared" si="143"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX130" s="1">
         <v>4</v>
       </c>
       <c r="AY130" s="11">
         <f t="shared" si="144"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AZ130" s="25">
         <f>[9]OB!$C130</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BA130" s="25">
         <f>[9]OB!$D130</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="BB130" s="3">
         <f t="shared" si="145"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="BC130" s="4" t="str">
         <f t="shared" si="146"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="BD130" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BE130" s="1">
         <v>4</v>
       </c>
       <c r="BF130" s="11">
         <f t="shared" si="148"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BG130" s="3">
         <f t="shared" si="149"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BH130" s="3">
         <f t="shared" si="150"/>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="BI130" s="3">
         <f t="shared" si="151"/>
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="BJ130" s="7">
         <f t="shared" si="152"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BK130" s="7">
         <f t="shared" si="153"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BL130" s="12">
         <f t="shared" si="154"/>
-        <v>44.375</v>
+        <v>0</v>
       </c>
       <c r="BM130" s="17" t="str">
+        <f t="shared" si="75"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN130" s="8">
         <f t="shared" si="155"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN130" s="8">
+        <v>0</v>
+      </c>
+      <c r="BO130" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>5</v>
-      </c>
-      <c r="BO130" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BP130" s="10" t="str">
         <f t="shared" si="157"/>
-        <v>F</v>
-      </c>
-      <c r="BP130" s="10" t="str">
-        <f t="shared" si="158"/>
-        <v>55-59.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:68" x14ac:dyDescent="0.25">
@@ -44999,22 +45351,22 @@
         <v>0</v>
       </c>
       <c r="E131" s="3">
-        <f t="shared" ref="E131:E135" si="159">D131+C131</f>
+        <f t="shared" ref="E131:E135" si="158">D131+C131</f>
         <v>0</v>
       </c>
       <c r="F131" s="4" t="str">
-        <f t="shared" ref="F131:F135" si="160">IF(E131&lt;=50,"F",IF(E131&lt;=54.99,"P",IF(E131&lt;=59.99,"C",IF(E131&lt;=64.99,"B",IF(E131&lt;=69.99,"B+",IF(E131&lt;=74.99,"A",IF(E131&lt;=79.99,"A+","O")))))))</f>
+        <f t="shared" ref="F131:F135" si="159">IF(E131&lt;=50,"F",IF(E131&lt;=54.99,"P",IF(E131&lt;=59.99,"C",IF(E131&lt;=64.99,"B",IF(E131&lt;=69.99,"B+",IF(E131&lt;=74.99,"A",IF(E131&lt;=79.99,"A+","O")))))))</f>
         <v>F</v>
       </c>
       <c r="G131" s="4" t="str">
-        <f t="shared" ref="G131:G135" si="161">IF(E131&lt;=50,"0",IF(E131&lt;=54.99,"4",IF(E131&lt;=59.99,"5",IF(E131&lt;=64.99,"6",IF(E131&lt;=69.99,"7",IF(E131&lt;=74.99,"8",IF(E131&lt;=79.99,"9","10")))))))</f>
+        <f t="shared" ref="G131:G135" si="160">IF(E131&lt;=50,"0",IF(E131&lt;=54.99,"4",IF(E131&lt;=59.99,"5",IF(E131&lt;=64.99,"6",IF(E131&lt;=69.99,"7",IF(E131&lt;=74.99,"8",IF(E131&lt;=79.99,"9","10")))))))</f>
         <v>0</v>
       </c>
       <c r="H131" s="1">
         <v>4</v>
       </c>
       <c r="I131" s="11">
-        <f t="shared" ref="I131:I135" si="162">G131*H131</f>
+        <f t="shared" ref="I131:I135" si="161">G131*H131</f>
         <v>0</v>
       </c>
       <c r="J131" s="16">
@@ -45026,22 +45378,22 @@
         <v>0</v>
       </c>
       <c r="L131" s="3">
-        <f t="shared" ref="L131:L135" si="163">K131+J131</f>
+        <f t="shared" ref="L131:L135" si="162">K131+J131</f>
         <v>0</v>
       </c>
       <c r="M131" s="4" t="str">
-        <f t="shared" ref="M131:M135" si="164">IF(L131&lt;=50,"F",IF(L131&lt;=54.99,"P",IF(L131&lt;=59.99,"C",IF(L131&lt;=64.99,"B",IF(L131&lt;=69.99,"B+",IF(L131&lt;=74.99,"A",IF(L131&lt;=79.99,"A+","O")))))))</f>
+        <f t="shared" ref="M131:M135" si="163">IF(L131&lt;=50,"F",IF(L131&lt;=54.99,"P",IF(L131&lt;=59.99,"C",IF(L131&lt;=64.99,"B",IF(L131&lt;=69.99,"B+",IF(L131&lt;=74.99,"A",IF(L131&lt;=79.99,"A+","O")))))))</f>
         <v>F</v>
       </c>
       <c r="N131" s="4" t="str">
-        <f t="shared" ref="N131:N135" si="165">IF(L131&lt;=50,"0",IF(L131&lt;=54.99,"4",IF(L131&lt;=59.99,"5",IF(L131&lt;=64.99,"6",IF(L131&lt;=69.99,"7",IF(L131&lt;=74.99,"8",IF(L131&lt;=79.99,"9","10")))))))</f>
+        <f t="shared" ref="N131:N135" si="164">IF(L131&lt;=50,"0",IF(L131&lt;=54.99,"4",IF(L131&lt;=59.99,"5",IF(L131&lt;=64.99,"6",IF(L131&lt;=69.99,"7",IF(L131&lt;=74.99,"8",IF(L131&lt;=79.99,"9","10")))))))</f>
         <v>0</v>
       </c>
       <c r="O131" s="1">
         <v>4</v>
       </c>
       <c r="P131" s="11">
-        <f t="shared" ref="P131:P135" si="166">N131*O131</f>
+        <f t="shared" ref="P131:P135" si="165">N131*O131</f>
         <v>0</v>
       </c>
       <c r="Q131" s="24">
@@ -45053,198 +45405,198 @@
         <v>0</v>
       </c>
       <c r="S131" s="3">
-        <f t="shared" ref="S131:S135" si="167">R131+Q131</f>
+        <f t="shared" ref="S131:S135" si="166">R131+Q131</f>
         <v>0</v>
       </c>
       <c r="T131" s="4" t="str">
-        <f t="shared" ref="T131:T135" si="168">IF(S131&lt;=40,"F",IF(S131&lt;=44,"D",IF(S131&lt;=49,"C",IF(S131&lt;=54,"B",IF(S131&lt;=59,"B+",IF(S131&lt;=69,"A",IF(S131&lt;=79,"A+","O")))))))</f>
+        <f t="shared" ref="T131:T135" si="167">IF(S131&lt;=40,"F",IF(S131&lt;=44,"D",IF(S131&lt;=49,"C",IF(S131&lt;=54,"B",IF(S131&lt;=59,"B+",IF(S131&lt;=69,"A",IF(S131&lt;=79,"A+","O")))))))</f>
         <v>F</v>
       </c>
       <c r="U131" s="4" t="str">
-        <f t="shared" ref="U131:U135" si="169">IF(S131&lt;=50,"0",IF(S131&lt;=54.99,"4",IF(S131&lt;=59.99,"5",IF(S131&lt;=64.99,"6",IF(S131&lt;=69.99,"7",IF(S131&lt;=74.99,"8",IF(S131&lt;=79.99,"9","10")))))))</f>
+        <f t="shared" ref="U131:U135" si="168">IF(S131&lt;=50,"0",IF(S131&lt;=54.99,"4",IF(S131&lt;=59.99,"5",IF(S131&lt;=64.99,"6",IF(S131&lt;=69.99,"7",IF(S131&lt;=74.99,"8",IF(S131&lt;=79.99,"9","10")))))))</f>
         <v>0</v>
       </c>
       <c r="V131" s="1">
         <v>4</v>
       </c>
       <c r="W131" s="11">
-        <f t="shared" ref="W131:W135" si="170">U131*V131</f>
+        <f t="shared" ref="W131:W135" si="169">U131*V131</f>
         <v>0</v>
       </c>
       <c r="X131" s="25">
         <f>[5]OM!$C131</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y131" s="26">
         <f>[5]OM!$D131</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Z131" s="3">
-        <f t="shared" ref="Z131:Z135" si="171">Y131+X131</f>
-        <v>75</v>
+        <f t="shared" ref="Z131:Z135" si="170">Y131+X131</f>
+        <v>0</v>
       </c>
       <c r="AA131" s="4" t="str">
-        <f t="shared" ref="AA131:AA135" si="172">IF(Z131&lt;=50,"F",IF(Z131&lt;=54.99,"P",IF(Z131&lt;=59.99,"C",IF(Z131&lt;=64.99,"B",IF(Z131&lt;=69.99,"B+",IF(Z131&lt;=74.99,"A",IF(Z131&lt;=79.99,"A+","O")))))))</f>
-        <v>A+</v>
+        <f t="shared" ref="AA131:AA135" si="171">IF(Z131&lt;=50,"F",IF(Z131&lt;=54.99,"P",IF(Z131&lt;=59.99,"C",IF(Z131&lt;=64.99,"B",IF(Z131&lt;=69.99,"B+",IF(Z131&lt;=74.99,"A",IF(Z131&lt;=79.99,"A+","O")))))))</f>
+        <v>F</v>
       </c>
       <c r="AB131" s="4" t="str">
-        <f t="shared" ref="AB131:AB135" si="173">IF(Z131&lt;=50,"0",IF(Z131&lt;=54.99,"4",IF(Z131&lt;=59.99,"5",IF(Z131&lt;=64.99,"6",IF(Z131&lt;=69.99,"7",IF(Z131&lt;=74.99,"8",IF(Z131&lt;=79.99,"9","10")))))))</f>
-        <v>9</v>
+        <f t="shared" ref="AB131:AB135" si="172">IF(Z131&lt;=50,"0",IF(Z131&lt;=54.99,"4",IF(Z131&lt;=59.99,"5",IF(Z131&lt;=64.99,"6",IF(Z131&lt;=69.99,"7",IF(Z131&lt;=74.99,"8",IF(Z131&lt;=79.99,"9","10")))))))</f>
+        <v>0</v>
       </c>
       <c r="AC131" s="1">
         <v>4</v>
       </c>
       <c r="AD131" s="11">
-        <f t="shared" ref="AD131:AD135" si="174">AB131*AC131</f>
-        <v>36</v>
+        <f t="shared" ref="AD131:AD135" si="173">AB131*AC131</f>
+        <v>0</v>
       </c>
       <c r="AE131" s="25">
         <f>[6]ME!$C131</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF131" s="26">
         <f>[6]ME!$D131</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AG131" s="3">
-        <f t="shared" ref="AG131:AG135" si="175">AF131+AE131</f>
-        <v>75</v>
+        <f t="shared" ref="AG131:AG135" si="174">AF131+AE131</f>
+        <v>0</v>
       </c>
       <c r="AH131" s="4" t="str">
-        <f t="shared" ref="AH131:AH135" si="176">IF(AG131&lt;=50,"F",IF(AG131&lt;=54.99,"P",IF(AG131&lt;=59.99,"C",IF(AG131&lt;=64.99,"B",IF(AG131&lt;=69.99,"B+",IF(AG131&lt;=74.99,"A",IF(AG131&lt;=79.99,"A+","O")))))))</f>
-        <v>A+</v>
+        <f t="shared" ref="AH131:AH135" si="175">IF(AG131&lt;=50,"F",IF(AG131&lt;=54.99,"P",IF(AG131&lt;=59.99,"C",IF(AG131&lt;=64.99,"B",IF(AG131&lt;=69.99,"B+",IF(AG131&lt;=74.99,"A",IF(AG131&lt;=79.99,"A+","O")))))))</f>
+        <v>F</v>
       </c>
       <c r="AI131" s="4" t="str">
-        <f t="shared" ref="AI131:AI135" si="177">IF(AG131&lt;=50,"0",IF(AG131&lt;=54.99,"4",IF(AG131&lt;=59.99,"5",IF(AG131&lt;=64.99,"6",IF(AG131&lt;=69.99,"7",IF(AG131&lt;=74.99,"8",IF(AG131&lt;=79.99,"9","10")))))))</f>
-        <v>9</v>
+        <f t="shared" ref="AI131:AI135" si="176">IF(AG131&lt;=50,"0",IF(AG131&lt;=54.99,"4",IF(AG131&lt;=59.99,"5",IF(AG131&lt;=64.99,"6",IF(AG131&lt;=69.99,"7",IF(AG131&lt;=74.99,"8",IF(AG131&lt;=79.99,"9","10")))))))</f>
+        <v>0</v>
       </c>
       <c r="AJ131" s="1">
         <v>4</v>
       </c>
       <c r="AK131" s="11">
-        <f t="shared" ref="AK131:AK135" si="178">AI131*AJ131</f>
-        <v>36</v>
+        <f t="shared" ref="AK131:AK135" si="177">AI131*AJ131</f>
+        <v>0</v>
       </c>
       <c r="AL131" s="25">
         <f>[7]EMC!$C131</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM131" s="25">
         <f>[7]EMC!$D131</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AN131" s="3">
-        <f t="shared" ref="AN131:AN135" si="179">AM131+AL131</f>
-        <v>75</v>
+        <f t="shared" ref="AN131:AN135" si="178">AM131+AL131</f>
+        <v>0</v>
       </c>
       <c r="AO131" s="4" t="str">
-        <f t="shared" ref="AO131:AO135" si="180">IF(AN131&lt;=50,"F",IF(AN131&lt;=54.99,"P",IF(AN131&lt;=59.99,"C",IF(AN131&lt;=64.99,"B",IF(AN131&lt;=69.99,"B+",IF(AN131&lt;=74.99,"A",IF(AN131&lt;=79.99,"A+","O")))))))</f>
-        <v>A+</v>
+        <f t="shared" ref="AO131:AO135" si="179">IF(AN131&lt;=50,"F",IF(AN131&lt;=54.99,"P",IF(AN131&lt;=59.99,"C",IF(AN131&lt;=64.99,"B",IF(AN131&lt;=69.99,"B+",IF(AN131&lt;=74.99,"A",IF(AN131&lt;=79.99,"A+","O")))))))</f>
+        <v>F</v>
       </c>
       <c r="AP131" s="4" t="str">
-        <f t="shared" ref="AP131:AP135" si="181">IF(AN131&lt;=50,"0",IF(AN131&lt;=54.99,"4",IF(AN131&lt;=59.99,"5",IF(AN131&lt;=64.99,"6",IF(AN131&lt;=69.99,"7",IF(AN131&lt;=74.99,"8",IF(AN131&lt;=79.99,"9","10")))))))</f>
-        <v>9</v>
+        <f t="shared" ref="AP131:AP135" si="180">IF(AN131&lt;=50,"0",IF(AN131&lt;=54.99,"4",IF(AN131&lt;=59.99,"5",IF(AN131&lt;=64.99,"6",IF(AN131&lt;=69.99,"7",IF(AN131&lt;=74.99,"8",IF(AN131&lt;=79.99,"9","10")))))))</f>
+        <v>0</v>
       </c>
       <c r="AQ131" s="1">
         <v>4</v>
       </c>
       <c r="AR131" s="11">
-        <f t="shared" ref="AR131:AR135" si="182">AP131*AQ131</f>
-        <v>36</v>
+        <f t="shared" ref="AR131:AR135" si="181">AP131*AQ131</f>
+        <v>0</v>
       </c>
       <c r="AS131" s="16">
         <f>[8]NSS!$C131</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT131" s="16">
         <f>[8]NSS!$D131</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AU131" s="3">
-        <f t="shared" ref="AU131:AU135" si="183">AT131+AS131</f>
-        <v>75</v>
+        <f t="shared" ref="AU131:AU135" si="182">AT131+AS131</f>
+        <v>0</v>
       </c>
       <c r="AV131" s="4" t="str">
-        <f t="shared" ref="AV131:AV135" si="184">IF(AU131&lt;=50,"F",IF(AU131&lt;=54.99,"P",IF(AU131&lt;=59.99,"C",IF(AU131&lt;=64.99,"B",IF(AU131&lt;=69.99,"B+",IF(AU131&lt;=74.99,"A",IF(AU131&lt;=79.99,"A+","O")))))))</f>
-        <v>A+</v>
+        <f t="shared" ref="AV131:AV135" si="183">IF(AU131&lt;=50,"F",IF(AU131&lt;=54.99,"P",IF(AU131&lt;=59.99,"C",IF(AU131&lt;=64.99,"B",IF(AU131&lt;=69.99,"B+",IF(AU131&lt;=74.99,"A",IF(AU131&lt;=79.99,"A+","O")))))))</f>
+        <v>F</v>
       </c>
       <c r="AW131" s="4" t="str">
-        <f t="shared" ref="AW131:AW135" si="185">IF(AU131&lt;=50,"0",IF(AU131&lt;=54.99,"4",IF(AU131&lt;=59.99,"5",IF(AU131&lt;=64.99,"6",IF(AU131&lt;=69.99,"7",IF(AU131&lt;=74.99,"8",IF(AU131&lt;=79.99,"9","10")))))))</f>
-        <v>9</v>
+        <f t="shared" ref="AW131:AW135" si="184">IF(AU131&lt;=50,"0",IF(AU131&lt;=54.99,"4",IF(AU131&lt;=59.99,"5",IF(AU131&lt;=64.99,"6",IF(AU131&lt;=69.99,"7",IF(AU131&lt;=74.99,"8",IF(AU131&lt;=79.99,"9","10")))))))</f>
+        <v>0</v>
       </c>
       <c r="AX131" s="1">
         <v>4</v>
       </c>
       <c r="AY131" s="11">
-        <f t="shared" ref="AY131:AY135" si="186">AW131*AX131</f>
-        <v>36</v>
+        <f t="shared" ref="AY131:AY135" si="185">AW131*AX131</f>
+        <v>0</v>
       </c>
       <c r="AZ131" s="25">
         <f>[9]OB!$C131</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BA131" s="25">
         <f>[9]OB!$D131</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="BB131" s="3">
-        <f t="shared" ref="BB131:BB135" si="187">BA131+AZ131</f>
-        <v>75</v>
+        <f t="shared" ref="BB131:BB135" si="186">BA131+AZ131</f>
+        <v>0</v>
       </c>
       <c r="BC131" s="4" t="str">
-        <f t="shared" ref="BC131:BC135" si="188">IF(BB131&lt;=50,"F",IF(BB131&lt;=54.99,"P",IF(BB131&lt;=59.99,"C",IF(BB131&lt;=64.99,"B",IF(BB131&lt;=69.99,"B+",IF(BB131&lt;=74.99,"A",IF(BB131&lt;=79.99,"A+","O")))))))</f>
-        <v>A+</v>
+        <f t="shared" ref="BC131:BC135" si="187">IF(BB131&lt;=50,"F",IF(BB131&lt;=54.99,"P",IF(BB131&lt;=59.99,"C",IF(BB131&lt;=64.99,"B",IF(BB131&lt;=69.99,"B+",IF(BB131&lt;=74.99,"A",IF(BB131&lt;=79.99,"A+","O")))))))</f>
+        <v>F</v>
       </c>
       <c r="BD131" s="4" t="str">
-        <f t="shared" ref="BD131:BD135" si="189">IF(BB131&lt;=50,"0",IF(BB131&lt;=54.99,"4",IF(BB131&lt;=59.99,"5",IF(BB131&lt;=64.99,"6",IF(BB131&lt;=69.99,"7",IF(BB131&lt;=74.99,"8",IF(BB131&lt;=79.99,"9","10")))))))</f>
-        <v>9</v>
+        <f t="shared" ref="BD131:BD135" si="188">IF(BB131&lt;=50,"0",IF(BB131&lt;=54.99,"4",IF(BB131&lt;=59.99,"5",IF(BB131&lt;=64.99,"6",IF(BB131&lt;=69.99,"7",IF(BB131&lt;=74.99,"8",IF(BB131&lt;=79.99,"9","10")))))))</f>
+        <v>0</v>
       </c>
       <c r="BE131" s="1">
         <v>4</v>
       </c>
       <c r="BF131" s="11">
-        <f t="shared" ref="BF131:BF135" si="190">BD131*BE131</f>
-        <v>36</v>
+        <f t="shared" ref="BF131:BF135" si="189">BD131*BE131</f>
+        <v>0</v>
       </c>
       <c r="BG131" s="3">
-        <f t="shared" ref="BG131:BG135" si="191">AZ131+AS131+AE131+X131+J131+C131+Q131+AL131</f>
-        <v>145</v>
+        <f t="shared" ref="BG131:BG135" si="190">AZ131+AS131+AE131+X131+J131+C131+Q131+AL131</f>
+        <v>0</v>
       </c>
       <c r="BH131" s="3">
-        <f t="shared" ref="BH131:BH135" si="192">BA131+AT131+AF131+Y131+K131+D131+R131+AM131</f>
-        <v>230</v>
+        <f t="shared" ref="BH131:BH135" si="191">BA131+AT131+AF131+Y131+K131+D131+R131+AM131</f>
+        <v>0</v>
       </c>
       <c r="BI131" s="3">
-        <f t="shared" ref="BI131:BI135" si="193">BH131+BG131</f>
-        <v>375</v>
+        <f t="shared" ref="BI131:BI135" si="192">BH131+BG131</f>
+        <v>0</v>
       </c>
       <c r="BJ131" s="7">
-        <f t="shared" ref="BJ131:BJ135" si="194">G131+N131+U131+AB131+AI131+AP131+BD131+AW131</f>
-        <v>45</v>
+        <f t="shared" ref="BJ131:BJ135" si="193">G131+N131+U131+AB131+AI131+AP131+BD131+AW131</f>
+        <v>0</v>
       </c>
       <c r="BK131" s="7">
-        <f t="shared" ref="BK131:BK135" si="195">I131+P131+W131+AD131+AK131+AY131+BF131+AR131</f>
-        <v>180</v>
+        <f t="shared" ref="BK131:BK135" si="194">I131+P131+W131+AD131+AK131+AY131+BF131+AR131</f>
+        <v>0</v>
       </c>
       <c r="BL131" s="12">
-        <f t="shared" ref="BL131:BL135" si="196">(BI131/800)*100</f>
-        <v>46.875</v>
+        <f t="shared" ref="BL131:BL135" si="195">(BI131/800)*100</f>
+        <v>0</v>
       </c>
       <c r="BM131" s="17" t="str">
-        <f t="shared" ref="BM131:BM135" si="197">IF(BI131&lt;=400,"Unsuccessful","Successful")</f>
+        <f t="shared" si="75"/>
         <v>Unsuccessful</v>
       </c>
       <c r="BN131" s="8">
-        <f t="shared" ref="BN131:BN135" si="198">BK131/32</f>
-        <v>5.625</v>
+        <f t="shared" ref="BN131:BN135" si="196">BK131/32</f>
+        <v>0</v>
       </c>
       <c r="BO131" s="4" t="str">
-        <f t="shared" ref="BO131:BO135" si="199">IF(BL131&lt;=50,"F",IF(BL131&lt;=54.99,"P",IF(BL131&lt;=59.99,"C",IF(BL131&lt;=64.99,"B",IF(BL131&lt;=69.99,"B+",IF(BL131&lt;=74.99,"A",IF(BL131&lt;=79.99,"A+","O")))))))</f>
+        <f t="shared" ref="BO131:BO135" si="197">IF(BL131&lt;=50,"F",IF(BL131&lt;=54.99,"P",IF(BL131&lt;=59.99,"C",IF(BL131&lt;=64.99,"B",IF(BL131&lt;=69.99,"B+",IF(BL131&lt;=74.99,"A",IF(BL131&lt;=79.99,"A+","O")))))))</f>
         <v>F</v>
       </c>
       <c r="BP131" s="10" t="str">
-        <f t="shared" ref="BP131:BP135" si="200">IF(BN131&lt;=4,"50",IF(BN131&lt;=4.5,"50-54.99",IF(BN131&lt;=5.5,"55-59.99",IF(BN131&lt;=6.5,"60-64.99",IF(BN131&lt;=7.5,"65-69.99",IF(BN131&lt;=8.5,"70.74.99",IF(BN131&lt;=9.5,"75-79-99","10")))))))</f>
-        <v>60-64.99</v>
+        <f t="shared" ref="BP131:BP135" si="198">IF(BN131&lt;=4,"50",IF(BN131&lt;=4.5,"50-54.99",IF(BN131&lt;=5.5,"55-59.99",IF(BN131&lt;=6.5,"60-64.99",IF(BN131&lt;=7.5,"65-69.99",IF(BN131&lt;=8.5,"70.74.99",IF(BN131&lt;=9.5,"75-79-99","10")))))))</f>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:68" x14ac:dyDescent="0.25">
@@ -45265,22 +45617,22 @@
         <v>0</v>
       </c>
       <c r="E132" s="3">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="F132" s="4" t="str">
         <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="F132" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="G132" s="4" t="str">
         <f t="shared" si="160"/>
-        <v>F</v>
-      </c>
-      <c r="G132" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>4</v>
+      </c>
+      <c r="I132" s="11">
         <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="H132" s="1">
-        <v>4</v>
-      </c>
-      <c r="I132" s="11">
-        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="J132" s="16">
@@ -45292,22 +45644,22 @@
         <v>0</v>
       </c>
       <c r="L132" s="3">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="4" t="str">
         <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="M132" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="N132" s="4" t="str">
         <f t="shared" si="164"/>
-        <v>F</v>
-      </c>
-      <c r="N132" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>4</v>
+      </c>
+      <c r="P132" s="11">
         <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="O132" s="1">
-        <v>4</v>
-      </c>
-      <c r="P132" s="11">
-        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="Q132" s="24">
@@ -45319,198 +45671,198 @@
         <v>0</v>
       </c>
       <c r="S132" s="3">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="T132" s="4" t="str">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="T132" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="U132" s="4" t="str">
         <f t="shared" si="168"/>
-        <v>F</v>
-      </c>
-      <c r="U132" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="V132" s="1">
+        <v>4</v>
+      </c>
+      <c r="W132" s="11">
         <f t="shared" si="169"/>
-        <v>0</v>
-      </c>
-      <c r="V132" s="1">
-        <v>4</v>
-      </c>
-      <c r="W132" s="11">
-        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="X132" s="25">
         <f>[5]OM!$C132</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Y132" s="26">
         <f>[5]OM!$D132</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z132" s="3">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="AA132" s="4" t="str">
         <f t="shared" si="171"/>
-        <v>67</v>
-      </c>
-      <c r="AA132" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AB132" s="4" t="str">
         <f t="shared" si="172"/>
-        <v>B+</v>
-      </c>
-      <c r="AB132" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD132" s="11">
         <f t="shared" si="173"/>
-        <v>7</v>
-      </c>
-      <c r="AC132" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD132" s="11">
-        <f t="shared" si="174"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE132" s="25">
         <f>[6]ME!$C132</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF132" s="26">
         <f>[6]ME!$D132</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AG132" s="3">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="AH132" s="4" t="str">
         <f t="shared" si="175"/>
-        <v>67</v>
-      </c>
-      <c r="AH132" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AI132" s="4" t="str">
         <f t="shared" si="176"/>
-        <v>B+</v>
-      </c>
-      <c r="AI132" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ132" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK132" s="11">
         <f t="shared" si="177"/>
-        <v>7</v>
-      </c>
-      <c r="AJ132" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK132" s="11">
-        <f t="shared" si="178"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL132" s="25">
         <f>[7]EMC!$C132</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AM132" s="25">
         <f>[7]EMC!$D132</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AN132" s="3">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AO132" s="4" t="str">
         <f t="shared" si="179"/>
-        <v>67</v>
-      </c>
-      <c r="AO132" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AP132" s="4" t="str">
         <f t="shared" si="180"/>
-        <v>B+</v>
-      </c>
-      <c r="AP132" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AQ132" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR132" s="11">
         <f t="shared" si="181"/>
-        <v>7</v>
-      </c>
-      <c r="AQ132" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR132" s="11">
-        <f t="shared" si="182"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS132" s="16">
         <f>[8]NSS!$C132</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT132" s="16">
         <f>[8]NSS!$D132</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AU132" s="3">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="AV132" s="4" t="str">
         <f t="shared" si="183"/>
-        <v>67</v>
-      </c>
-      <c r="AV132" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AW132" s="4" t="str">
         <f t="shared" si="184"/>
-        <v>B+</v>
-      </c>
-      <c r="AW132" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AX132" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY132" s="11">
         <f t="shared" si="185"/>
-        <v>7</v>
-      </c>
-      <c r="AX132" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY132" s="11">
-        <f t="shared" si="186"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AZ132" s="25">
         <f>[9]OB!$C132</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BA132" s="25">
         <f>[9]OB!$D132</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BB132" s="3">
+        <f t="shared" si="186"/>
+        <v>0</v>
+      </c>
+      <c r="BC132" s="4" t="str">
         <f t="shared" si="187"/>
-        <v>67</v>
-      </c>
-      <c r="BC132" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BD132" s="4" t="str">
         <f t="shared" si="188"/>
-        <v>B+</v>
-      </c>
-      <c r="BD132" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE132" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF132" s="11">
         <f t="shared" si="189"/>
-        <v>7</v>
-      </c>
-      <c r="BE132" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF132" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG132" s="3">
         <f t="shared" si="190"/>
-        <v>28</v>
-      </c>
-      <c r="BG132" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH132" s="3">
         <f t="shared" si="191"/>
-        <v>135</v>
-      </c>
-      <c r="BH132" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI132" s="3">
         <f t="shared" si="192"/>
-        <v>200</v>
-      </c>
-      <c r="BI132" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ132" s="7">
         <f t="shared" si="193"/>
-        <v>335</v>
-      </c>
-      <c r="BJ132" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK132" s="7">
         <f t="shared" si="194"/>
-        <v>35</v>
-      </c>
-      <c r="BK132" s="7">
+        <v>0</v>
+      </c>
+      <c r="BL132" s="12">
         <f t="shared" si="195"/>
-        <v>140</v>
-      </c>
-      <c r="BL132" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM132" s="17" t="str">
+        <f t="shared" ref="BM132:BM135" si="199">IF(OR(C132&lt;=20,D132&lt;=30,J132&lt;=20,K132&lt;=30,Q132&lt;=20,R132&lt;=30,X132&lt;=20,Y132&lt;=30,AE132&lt;=20,AF132&lt;=30,AL132&lt;=20,AM132&lt;=30,AS132&lt;=20,AT132&lt;=30,AZ132&lt;=20,BA132&lt;=30),"Unsuccessful","Successful")</f>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN132" s="8">
         <f t="shared" si="196"/>
-        <v>41.875</v>
-      </c>
-      <c r="BM132" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="BO132" s="4" t="str">
         <f t="shared" si="197"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN132" s="8">
+        <v>F</v>
+      </c>
+      <c r="BP132" s="10" t="str">
         <f t="shared" si="198"/>
-        <v>4.375</v>
-      </c>
-      <c r="BO132" s="4" t="str">
-        <f t="shared" si="199"/>
-        <v>F</v>
-      </c>
-      <c r="BP132" s="10" t="str">
-        <f t="shared" si="200"/>
-        <v>50-54.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:68" x14ac:dyDescent="0.25">
@@ -45531,22 +45883,22 @@
         <v>0</v>
       </c>
       <c r="E133" s="3">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="F133" s="4" t="str">
         <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="F133" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="G133" s="4" t="str">
         <f t="shared" si="160"/>
-        <v>F</v>
-      </c>
-      <c r="G133" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>4</v>
+      </c>
+      <c r="I133" s="11">
         <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="H133" s="1">
-        <v>4</v>
-      </c>
-      <c r="I133" s="11">
-        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="J133" s="16">
@@ -45558,22 +45910,22 @@
         <v>0</v>
       </c>
       <c r="L133" s="3">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="4" t="str">
         <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="M133" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="N133" s="4" t="str">
         <f t="shared" si="164"/>
-        <v>F</v>
-      </c>
-      <c r="N133" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>4</v>
+      </c>
+      <c r="P133" s="11">
         <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="O133" s="1">
-        <v>4</v>
-      </c>
-      <c r="P133" s="11">
-        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="Q133" s="24">
@@ -45585,198 +45937,198 @@
         <v>0</v>
       </c>
       <c r="S133" s="3">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="T133" s="4" t="str">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="T133" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="U133" s="4" t="str">
         <f t="shared" si="168"/>
-        <v>F</v>
-      </c>
-      <c r="U133" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="V133" s="1">
+        <v>4</v>
+      </c>
+      <c r="W133" s="11">
         <f t="shared" si="169"/>
-        <v>0</v>
-      </c>
-      <c r="V133" s="1">
-        <v>4</v>
-      </c>
-      <c r="W133" s="11">
-        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="X133" s="25">
         <f>[5]OM!$C133</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y133" s="26">
         <f>[5]OM!$D133</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z133" s="3">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="AA133" s="4" t="str">
         <f t="shared" si="171"/>
-        <v>69</v>
-      </c>
-      <c r="AA133" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AB133" s="4" t="str">
         <f t="shared" si="172"/>
-        <v>B+</v>
-      </c>
-      <c r="AB133" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD133" s="11">
         <f t="shared" si="173"/>
-        <v>7</v>
-      </c>
-      <c r="AC133" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD133" s="11">
-        <f t="shared" si="174"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE133" s="25">
         <f>[6]ME!$C133</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF133" s="26">
         <f>[6]ME!$D133</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AG133" s="3">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="AH133" s="4" t="str">
         <f t="shared" si="175"/>
-        <v>69</v>
-      </c>
-      <c r="AH133" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AI133" s="4" t="str">
         <f t="shared" si="176"/>
-        <v>B+</v>
-      </c>
-      <c r="AI133" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ133" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK133" s="11">
         <f t="shared" si="177"/>
-        <v>7</v>
-      </c>
-      <c r="AJ133" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK133" s="11">
-        <f t="shared" si="178"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL133" s="25">
         <f>[7]EMC!$C133</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM133" s="25">
         <f>[7]EMC!$D133</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AN133" s="3">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AO133" s="4" t="str">
         <f t="shared" si="179"/>
-        <v>69</v>
-      </c>
-      <c r="AO133" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AP133" s="4" t="str">
         <f t="shared" si="180"/>
-        <v>B+</v>
-      </c>
-      <c r="AP133" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AQ133" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR133" s="11">
         <f t="shared" si="181"/>
-        <v>7</v>
-      </c>
-      <c r="AQ133" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR133" s="11">
-        <f t="shared" si="182"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS133" s="16">
         <f>[8]NSS!$C133</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT133" s="16">
         <f>[8]NSS!$D133</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AU133" s="3">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="AV133" s="4" t="str">
         <f t="shared" si="183"/>
-        <v>69</v>
-      </c>
-      <c r="AV133" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AW133" s="4" t="str">
         <f t="shared" si="184"/>
-        <v>B+</v>
-      </c>
-      <c r="AW133" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AX133" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY133" s="11">
         <f t="shared" si="185"/>
-        <v>7</v>
-      </c>
-      <c r="AX133" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY133" s="11">
-        <f t="shared" si="186"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AZ133" s="25">
         <f>[9]OB!$C133</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BA133" s="25">
         <f>[9]OB!$D133</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BB133" s="3">
+        <f t="shared" si="186"/>
+        <v>0</v>
+      </c>
+      <c r="BC133" s="4" t="str">
         <f t="shared" si="187"/>
-        <v>69</v>
-      </c>
-      <c r="BC133" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BD133" s="4" t="str">
         <f t="shared" si="188"/>
-        <v>B+</v>
-      </c>
-      <c r="BD133" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE133" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF133" s="11">
         <f t="shared" si="189"/>
-        <v>7</v>
-      </c>
-      <c r="BE133" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF133" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG133" s="3">
         <f t="shared" si="190"/>
-        <v>28</v>
-      </c>
-      <c r="BG133" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH133" s="3">
         <f t="shared" si="191"/>
-        <v>155</v>
-      </c>
-      <c r="BH133" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI133" s="3">
         <f t="shared" si="192"/>
-        <v>190</v>
-      </c>
-      <c r="BI133" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ133" s="7">
         <f t="shared" si="193"/>
-        <v>345</v>
-      </c>
-      <c r="BJ133" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK133" s="7">
         <f t="shared" si="194"/>
-        <v>35</v>
-      </c>
-      <c r="BK133" s="7">
+        <v>0</v>
+      </c>
+      <c r="BL133" s="12">
         <f t="shared" si="195"/>
-        <v>140</v>
-      </c>
-      <c r="BL133" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM133" s="17" t="str">
+        <f t="shared" si="199"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN133" s="8">
         <f t="shared" si="196"/>
-        <v>43.125</v>
-      </c>
-      <c r="BM133" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="BO133" s="4" t="str">
         <f t="shared" si="197"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN133" s="8">
+        <v>F</v>
+      </c>
+      <c r="BP133" s="10" t="str">
         <f t="shared" si="198"/>
-        <v>4.375</v>
-      </c>
-      <c r="BO133" s="4" t="str">
-        <f t="shared" si="199"/>
-        <v>F</v>
-      </c>
-      <c r="BP133" s="10" t="str">
-        <f t="shared" si="200"/>
-        <v>50-54.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:68" x14ac:dyDescent="0.25">
@@ -45797,22 +46149,22 @@
         <v>0</v>
       </c>
       <c r="E134" s="3">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="F134" s="4" t="str">
         <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="F134" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="G134" s="4" t="str">
         <f t="shared" si="160"/>
-        <v>F</v>
-      </c>
-      <c r="G134" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>4</v>
+      </c>
+      <c r="I134" s="11">
         <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="H134" s="1">
-        <v>4</v>
-      </c>
-      <c r="I134" s="11">
-        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="J134" s="16">
@@ -45824,22 +46176,22 @@
         <v>0</v>
       </c>
       <c r="L134" s="3">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="M134" s="4" t="str">
         <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="M134" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="N134" s="4" t="str">
         <f t="shared" si="164"/>
-        <v>F</v>
-      </c>
-      <c r="N134" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>4</v>
+      </c>
+      <c r="P134" s="11">
         <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="O134" s="1">
-        <v>4</v>
-      </c>
-      <c r="P134" s="11">
-        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="Q134" s="24">
@@ -45851,198 +46203,198 @@
         <v>0</v>
       </c>
       <c r="S134" s="3">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="T134" s="4" t="str">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="T134" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="U134" s="4" t="str">
         <f t="shared" si="168"/>
-        <v>F</v>
-      </c>
-      <c r="U134" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="V134" s="1">
+        <v>4</v>
+      </c>
+      <c r="W134" s="11">
         <f t="shared" si="169"/>
-        <v>0</v>
-      </c>
-      <c r="V134" s="1">
-        <v>4</v>
-      </c>
-      <c r="W134" s="11">
-        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="X134" s="25">
         <f>[5]OM!$C134</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y134" s="26">
         <f>[5]OM!$D134</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z134" s="3">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="AA134" s="4" t="str">
         <f t="shared" si="171"/>
-        <v>65</v>
-      </c>
-      <c r="AA134" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AB134" s="4" t="str">
         <f t="shared" si="172"/>
-        <v>B+</v>
-      </c>
-      <c r="AB134" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD134" s="11">
         <f t="shared" si="173"/>
-        <v>7</v>
-      </c>
-      <c r="AC134" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD134" s="11">
-        <f t="shared" si="174"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE134" s="25">
         <f>[6]ME!$C134</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF134" s="26">
         <f>[6]ME!$D134</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AG134" s="3">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="AH134" s="4" t="str">
         <f t="shared" si="175"/>
-        <v>65</v>
-      </c>
-      <c r="AH134" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AI134" s="4" t="str">
         <f t="shared" si="176"/>
-        <v>B+</v>
-      </c>
-      <c r="AI134" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ134" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK134" s="11">
         <f t="shared" si="177"/>
-        <v>7</v>
-      </c>
-      <c r="AJ134" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK134" s="11">
-        <f t="shared" si="178"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL134" s="25">
         <f>[7]EMC!$C134</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM134" s="25">
         <f>[7]EMC!$D134</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AN134" s="3">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AO134" s="4" t="str">
         <f t="shared" si="179"/>
-        <v>65</v>
-      </c>
-      <c r="AO134" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AP134" s="4" t="str">
         <f t="shared" si="180"/>
-        <v>B+</v>
-      </c>
-      <c r="AP134" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AQ134" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR134" s="11">
         <f t="shared" si="181"/>
-        <v>7</v>
-      </c>
-      <c r="AQ134" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR134" s="11">
-        <f t="shared" si="182"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS134" s="16">
         <f>[8]NSS!$C134</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT134" s="16">
         <f>[8]NSS!$D134</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AU134" s="3">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="AV134" s="4" t="str">
         <f t="shared" si="183"/>
-        <v>65</v>
-      </c>
-      <c r="AV134" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AW134" s="4" t="str">
         <f t="shared" si="184"/>
-        <v>B+</v>
-      </c>
-      <c r="AW134" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AX134" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY134" s="11">
         <f t="shared" si="185"/>
-        <v>7</v>
-      </c>
-      <c r="AX134" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY134" s="11">
-        <f t="shared" si="186"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AZ134" s="25">
         <f>[9]OB!$C134</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BA134" s="25">
         <f>[9]OB!$D134</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="BB134" s="3">
+        <f t="shared" si="186"/>
+        <v>0</v>
+      </c>
+      <c r="BC134" s="4" t="str">
         <f t="shared" si="187"/>
-        <v>65</v>
-      </c>
-      <c r="BC134" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BD134" s="4" t="str">
         <f t="shared" si="188"/>
-        <v>B+</v>
-      </c>
-      <c r="BD134" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="BE134" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF134" s="11">
         <f t="shared" si="189"/>
-        <v>7</v>
-      </c>
-      <c r="BE134" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF134" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG134" s="3">
         <f t="shared" si="190"/>
-        <v>28</v>
-      </c>
-      <c r="BG134" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH134" s="3">
         <f t="shared" si="191"/>
-        <v>140</v>
-      </c>
-      <c r="BH134" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI134" s="3">
         <f t="shared" si="192"/>
-        <v>185</v>
-      </c>
-      <c r="BI134" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ134" s="7">
         <f t="shared" si="193"/>
-        <v>325</v>
-      </c>
-      <c r="BJ134" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK134" s="7">
         <f t="shared" si="194"/>
-        <v>35</v>
-      </c>
-      <c r="BK134" s="7">
+        <v>0</v>
+      </c>
+      <c r="BL134" s="12">
         <f t="shared" si="195"/>
-        <v>140</v>
-      </c>
-      <c r="BL134" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM134" s="17" t="str">
+        <f t="shared" si="199"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN134" s="8">
         <f t="shared" si="196"/>
-        <v>40.625</v>
-      </c>
-      <c r="BM134" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="BO134" s="4" t="str">
         <f t="shared" si="197"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN134" s="8">
+        <v>F</v>
+      </c>
+      <c r="BP134" s="10" t="str">
         <f t="shared" si="198"/>
-        <v>4.375</v>
-      </c>
-      <c r="BO134" s="4" t="str">
-        <f t="shared" si="199"/>
-        <v>F</v>
-      </c>
-      <c r="BP134" s="10" t="str">
-        <f t="shared" si="200"/>
-        <v>50-54.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:68" x14ac:dyDescent="0.25">
@@ -46063,22 +46415,22 @@
         <v>0</v>
       </c>
       <c r="E135" s="3">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="F135" s="4" t="str">
         <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="F135" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="G135" s="4" t="str">
         <f t="shared" si="160"/>
-        <v>F</v>
-      </c>
-      <c r="G135" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>4</v>
+      </c>
+      <c r="I135" s="11">
         <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="H135" s="1">
-        <v>4</v>
-      </c>
-      <c r="I135" s="11">
-        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="J135" s="16">
@@ -46090,22 +46442,22 @@
         <v>0</v>
       </c>
       <c r="L135" s="3">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="M135" s="4" t="str">
         <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="M135" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="N135" s="4" t="str">
         <f t="shared" si="164"/>
-        <v>F</v>
-      </c>
-      <c r="N135" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>4</v>
+      </c>
+      <c r="P135" s="11">
         <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="O135" s="1">
-        <v>4</v>
-      </c>
-      <c r="P135" s="11">
-        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="Q135" s="24">
@@ -46117,22 +46469,22 @@
         <v>0</v>
       </c>
       <c r="S135" s="3">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="T135" s="4" t="str">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="T135" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="U135" s="4" t="str">
         <f t="shared" si="168"/>
-        <v>F</v>
-      </c>
-      <c r="U135" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="V135" s="1">
+        <v>4</v>
+      </c>
+      <c r="W135" s="11">
         <f t="shared" si="169"/>
-        <v>0</v>
-      </c>
-      <c r="V135" s="1">
-        <v>4</v>
-      </c>
-      <c r="W135" s="11">
-        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="X135" s="25">
@@ -46144,22 +46496,22 @@
         <v>0</v>
       </c>
       <c r="Z135" s="3">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="AA135" s="4" t="str">
         <f t="shared" si="171"/>
-        <v>0</v>
-      </c>
-      <c r="AA135" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AB135" s="4" t="str">
         <f t="shared" si="172"/>
-        <v>F</v>
-      </c>
-      <c r="AB135" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD135" s="11">
         <f t="shared" si="173"/>
-        <v>0</v>
-      </c>
-      <c r="AC135" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD135" s="11">
-        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="AE135" s="25">
@@ -46171,22 +46523,22 @@
         <v>0</v>
       </c>
       <c r="AG135" s="3">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="AH135" s="4" t="str">
         <f t="shared" si="175"/>
-        <v>0</v>
-      </c>
-      <c r="AH135" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AI135" s="4" t="str">
         <f t="shared" si="176"/>
-        <v>F</v>
-      </c>
-      <c r="AI135" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ135" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK135" s="11">
         <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="AJ135" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK135" s="11">
-        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="AL135" s="25">
@@ -46198,22 +46550,22 @@
         <v>0</v>
       </c>
       <c r="AN135" s="3">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AO135" s="4" t="str">
         <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="AO135" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AP135" s="4" t="str">
         <f t="shared" si="180"/>
-        <v>F</v>
-      </c>
-      <c r="AP135" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AQ135" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR135" s="11">
         <f t="shared" si="181"/>
-        <v>0</v>
-      </c>
-      <c r="AQ135" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR135" s="11">
-        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="AS135" s="16">
@@ -46225,22 +46577,22 @@
         <v>0</v>
       </c>
       <c r="AU135" s="3">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="AV135" s="4" t="str">
         <f t="shared" si="183"/>
-        <v>0</v>
-      </c>
-      <c r="AV135" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="AW135" s="4" t="str">
         <f t="shared" si="184"/>
-        <v>F</v>
-      </c>
-      <c r="AW135" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AX135" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY135" s="11">
         <f t="shared" si="185"/>
-        <v>0</v>
-      </c>
-      <c r="AX135" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY135" s="11">
-        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="AZ135" s="25">
@@ -46252,67 +46604,67 @@
         <v>0</v>
       </c>
       <c r="BB135" s="3">
+        <f t="shared" si="186"/>
+        <v>0</v>
+      </c>
+      <c r="BC135" s="4" t="str">
         <f t="shared" si="187"/>
-        <v>0</v>
-      </c>
-      <c r="BC135" s="4" t="str">
+        <v>F</v>
+      </c>
+      <c r="BD135" s="4" t="str">
         <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+      <c r="BE135" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF135" s="11">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+      <c r="BG135" s="3">
+        <f t="shared" si="190"/>
+        <v>0</v>
+      </c>
+      <c r="BH135" s="3">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="BI135" s="3">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="BJ135" s="7">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="BK135" s="7">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="BL135" s="12">
+        <f t="shared" si="195"/>
+        <v>0</v>
+      </c>
+      <c r="BM135" s="17" t="str">
+        <f t="shared" si="199"/>
+        <v>Unsuccessful</v>
+      </c>
+      <c r="BN135" s="8">
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="BO135" s="4" t="str">
+        <f t="shared" si="197"/>
         <v>F</v>
       </c>
-      <c r="BD135" s="4" t="str">
-        <f t="shared" si="189"/>
-        <v>0</v>
-      </c>
-      <c r="BE135" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF135" s="11">
-        <f t="shared" si="190"/>
-        <v>0</v>
-      </c>
-      <c r="BG135" s="3">
-        <f t="shared" si="191"/>
-        <v>0</v>
-      </c>
-      <c r="BH135" s="3">
-        <f t="shared" si="192"/>
-        <v>0</v>
-      </c>
-      <c r="BI135" s="3">
-        <f t="shared" si="193"/>
-        <v>0</v>
-      </c>
-      <c r="BJ135" s="7">
-        <f t="shared" si="194"/>
-        <v>0</v>
-      </c>
-      <c r="BK135" s="7">
-        <f t="shared" si="195"/>
-        <v>0</v>
-      </c>
-      <c r="BL135" s="12">
-        <f t="shared" si="196"/>
-        <v>0</v>
-      </c>
-      <c r="BM135" s="17" t="str">
-        <f t="shared" si="197"/>
-        <v>Unsuccessful</v>
-      </c>
-      <c r="BN135" s="8">
+      <c r="BP135" s="10" t="str">
         <f t="shared" si="198"/>
-        <v>0</v>
-      </c>
-      <c r="BO135" s="4" t="str">
-        <f t="shared" si="199"/>
-        <v>F</v>
-      </c>
-      <c r="BP135" s="10" t="str">
-        <f t="shared" si="200"/>
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Xj7JHplE6VbxzKxNolcIiYhrn7z3RMRgUvwReXrFOB6lOyT1xeI4oFuzRp5TS1VtKh3u4CgDUV+3iLaYXiTT8A==" saltValue="9AfCiasr1+bBSOsYZQmseA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xWUAtRAXfRU3Z34qsmUt5tdGlF1SZFwfvZNj47CWvuVAz/PqfivoNOnwYo+GK0qZ0ubI0Y4KdctFaXHJSmHN/Q==" saltValue="26sYJjnPP3ME4c5MSkVgbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="BG1:BK1"/>
     <mergeCell ref="BL1:BP1"/>
